--- a/Availability by country (RC).xlsx
+++ b/Availability by country (RC).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L.GonzalezMorales\OneDrive - United Nations\UNCT - Toolkit\Data availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{E4A47491-1201-44A3-9EEB-51B5AD47C4B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2FF2256B-BB66-4FF9-B291-F6F6340B11B2}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{E4A47491-1201-44A3-9EEB-51B5AD47C4B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{66DFC538-1593-4E91-9F56-0243838E5751}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755" activeTab="1" xr2:uid="{8214C5FA-388B-4B75-99F2-5EABBA51F540}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="215">
   <si>
     <t>M49</t>
   </si>
@@ -673,6 +673,12 @@
   </si>
   <si>
     <t>Percent of Tier II indicators available*</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1111,7 @@
   <dimension ref="A1:G586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>39.252336448598101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>62.616822429906499</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>31</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>79.439252336448604</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>72.897196261682197</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>58.878504672897201</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>48</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>51</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>52</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>71.962616822429894</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>64</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>68</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>70</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>72</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>76</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>74.766355140186903</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>90</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>63.551401869158902</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>96</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>78.504672897196301</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>100</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>104</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>108</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>112</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>116</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>120</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>124</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>132</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>140</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>144</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>148</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>152</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>156</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>170</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>174</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>178</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>180</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>188</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>81.308411214953296</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>191</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>192</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>71.028037383177605</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>196</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>79.439252336448604</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>203</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>204</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>74.766355140186903</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>208</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>61.682242990654203</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>212</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>214</v>
       </c>
@@ -4588,7 +4594,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>218</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>222</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>226</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>231</v>
       </c>
@@ -4864,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>232</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>71.962616822429894</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>233</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>242</v>
       </c>
@@ -5094,7 +5100,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>246</v>
       </c>
@@ -5163,7 +5169,7 @@
         <v>77.570093457943898</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>250</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>262</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>266</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>268</v>
       </c>
@@ -5416,7 +5422,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>270</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>275</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>75.700934579439206</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>276</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>288</v>
       </c>
@@ -5715,7 +5721,7 @@
         <v>68.224299065420595</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>296</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>74.766355140186903</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>300</v>
       </c>
@@ -5853,7 +5859,7 @@
         <v>68.224299065420595</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>308</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>320</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>324</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>328</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>332</v>
       </c>
@@ -6175,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>340</v>
       </c>
@@ -6267,7 +6273,7 @@
         <v>77.570093457943898</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>348</v>
       </c>
@@ -6336,7 +6342,7 @@
         <v>70.093457943925202</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>352</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>356</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>360</v>
       </c>
@@ -6520,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>364</v>
       </c>
@@ -6589,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>368</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>77.570093457943898</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>372</v>
       </c>
@@ -6750,7 +6756,7 @@
         <v>70.093457943925202</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>376</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>380</v>
       </c>
@@ -6865,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>384</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>388</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>77.570093457943898</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>392</v>
       </c>
@@ -7072,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>398</v>
       </c>
@@ -7141,7 +7147,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>400</v>
       </c>
@@ -7210,7 +7216,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>404</v>
       </c>
@@ -7279,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>408</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>410</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>8.4112149532710294</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>412</v>
       </c>
@@ -7486,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>414</v>
       </c>
@@ -7555,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>417</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>418</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>422</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>426</v>
       </c>
@@ -7854,7 +7860,7 @@
         <v>71.028037383177605</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>428</v>
       </c>
@@ -7900,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>430</v>
       </c>
@@ -7969,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>434</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>28.971962616822399</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>438</v>
       </c>
@@ -8130,7 +8136,7 @@
         <v>72.897196261682197</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>440</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>71.962616822429894</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>442</v>
       </c>
@@ -8245,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>450</v>
       </c>
@@ -8314,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>454</v>
       </c>
@@ -8383,7 +8389,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>458</v>
       </c>
@@ -8452,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>462</v>
       </c>
@@ -8521,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>466</v>
       </c>
@@ -8613,7 +8619,7 @@
         <v>71.028037383177605</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>470</v>
       </c>
@@ -8659,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>478</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>480</v>
       </c>
@@ -8797,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>484</v>
       </c>
@@ -8889,7 +8895,7 @@
         <v>35.514018691588802</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>492</v>
       </c>
@@ -8935,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>496</v>
       </c>
@@ -9004,7 +9010,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>498</v>
       </c>
@@ -9073,7 +9079,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>499</v>
       </c>
@@ -9142,7 +9148,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>504</v>
       </c>
@@ -9211,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>508</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>75.700934579439206</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>512</v>
       </c>
@@ -9349,7 +9355,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>516</v>
       </c>
@@ -9441,7 +9447,7 @@
         <v>55.140186915887803</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>520</v>
       </c>
@@ -9487,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>524</v>
       </c>
@@ -9579,7 +9585,7 @@
         <v>73.8317757009346</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>528</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>80.373831775700907</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>548</v>
       </c>
@@ -9717,7 +9723,7 @@
         <v>74.766355140186903</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>554</v>
       </c>
@@ -9763,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>558</v>
       </c>
@@ -9832,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>562</v>
       </c>
@@ -9901,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>566</v>
       </c>
@@ -9993,7 +9999,7 @@
         <v>75.700934579439206</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>578</v>
       </c>
@@ -10062,7 +10068,7 @@
         <v>59.813084112149497</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>583</v>
       </c>
@@ -10131,7 +10137,7 @@
         <v>53.271028037383203</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>584</v>
       </c>
@@ -10200,7 +10206,7 @@
         <v>58.878504672897201</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>585</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>586</v>
       </c>
@@ -10315,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>591</v>
       </c>
@@ -10384,7 +10390,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>598</v>
       </c>
@@ -10453,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>600</v>
       </c>
@@ -10522,7 +10528,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>604</v>
       </c>
@@ -10591,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>608</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>616</v>
       </c>
@@ -10752,7 +10758,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>620</v>
       </c>
@@ -10798,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>624</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>626</v>
       </c>
@@ -10959,7 +10965,7 @@
         <v>66.355140186915904</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>634</v>
       </c>
@@ -11028,7 +11034,7 @@
         <v>78.504672897196301</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>642</v>
       </c>
@@ -11097,7 +11103,7 @@
         <v>74.766355140186903</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>643</v>
       </c>
@@ -11143,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>646</v>
       </c>
@@ -11235,7 +11241,7 @@
         <v>55.140186915887803</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>659</v>
       </c>
@@ -11304,7 +11310,7 @@
         <v>71.962616822429894</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>662</v>
       </c>
@@ -11373,7 +11379,7 @@
         <v>64.485981308411198</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>670</v>
       </c>
@@ -11442,7 +11448,7 @@
         <v>37.383177570093501</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>674</v>
       </c>
@@ -11488,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>678</v>
       </c>
@@ -11557,7 +11563,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>682</v>
       </c>
@@ -11626,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>686</v>
       </c>
@@ -11695,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>688</v>
       </c>
@@ -11787,7 +11793,7 @@
         <v>74.766355140186903</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>690</v>
       </c>
@@ -11833,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>694</v>
       </c>
@@ -11925,7 +11931,7 @@
         <v>62.616822429906499</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>702</v>
       </c>
@@ -11994,7 +12000,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>703</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>704</v>
       </c>
@@ -12132,7 +12138,7 @@
         <v>82.242990654205599</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>705</v>
       </c>
@@ -12178,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>706</v>
       </c>
@@ -12247,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>710</v>
       </c>
@@ -12316,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>716</v>
       </c>
@@ -12408,7 +12414,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>724</v>
       </c>
@@ -12454,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>728</v>
       </c>
@@ -12523,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>729</v>
       </c>
@@ -12592,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>740</v>
       </c>
@@ -12661,7 +12667,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>748</v>
       </c>
@@ -12753,7 +12759,7 @@
         <v>75.700934579439206</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>752</v>
       </c>
@@ -12822,7 +12828,7 @@
         <v>74.766355140186903</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>756</v>
       </c>
@@ -12868,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>760</v>
       </c>
@@ -12937,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>762</v>
       </c>
@@ -13006,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>764</v>
       </c>
@@ -13075,7 +13081,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>768</v>
       </c>
@@ -13167,7 +13173,7 @@
         <v>75.700934579439206</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>776</v>
       </c>
@@ -13213,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>780</v>
       </c>
@@ -13282,7 +13288,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>784</v>
       </c>
@@ -13351,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>788</v>
       </c>
@@ -13420,7 +13426,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>792</v>
       </c>
@@ -13489,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>795</v>
       </c>
@@ -13581,7 +13587,7 @@
         <v>59.813084112149497</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>798</v>
       </c>
@@ -13627,7 +13633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>800</v>
       </c>
@@ -13696,7 +13702,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>804</v>
       </c>
@@ -13765,7 +13771,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>807</v>
       </c>
@@ -13834,7 +13840,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>818</v>
       </c>
@@ -13926,7 +13932,7 @@
         <v>73.8317757009346</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>826</v>
       </c>
@@ -13972,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>834</v>
       </c>
@@ -14064,7 +14070,7 @@
         <v>76.635514018691595</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>840</v>
       </c>
@@ -14110,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>854</v>
       </c>
@@ -14179,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>858</v>
       </c>
@@ -14248,7 +14254,7 @@
         <v>2.4390243902439002</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>860</v>
       </c>
@@ -14317,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>862</v>
       </c>
@@ -14386,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>882</v>
       </c>
@@ -14455,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>887</v>
       </c>
@@ -14524,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>894</v>
       </c>
@@ -14595,8 +14601,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G586" xr:uid="{5C12BD15-FB8A-47B2-9CAA-B5156B93B5E3}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
+        <filter val="Tier I*"/>
         <filter val="Tier II"/>
       </filters>
     </filterColumn>
@@ -14607,48 +14619,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1879CE39-7E2D-4892-8892-6CBC793B2BFC}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="12" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -14656,25 +14675,35 @@
         <v>7</v>
       </c>
       <c r="C2">
+        <v>66.026881979999999</v>
+      </c>
+      <c r="D2">
+        <v>33.831601990000003</v>
+      </c>
+      <c r="E2">
         <v>87</v>
       </c>
-      <c r="D2">
-        <v>107</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="F2">
+        <v>107</v>
+      </c>
+      <c r="G2" s="11">
         <v>81.308411214953296</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>84</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="I2">
+        <v>84</v>
+      </c>
+      <c r="J2" s="11">
         <v>19.047619047619001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L2" s="6">
+        <f>MIN(J2:J131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -14682,25 +14711,31 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>20.066609280000002</v>
+      </c>
+      <c r="D3">
+        <v>41.138970069999999</v>
+      </c>
+      <c r="E3">
         <v>91</v>
       </c>
-      <c r="D3">
-        <v>107</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="F3">
+        <v>107</v>
+      </c>
+      <c r="G3" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="G3">
-        <v>84</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="I3">
+        <v>84</v>
+      </c>
+      <c r="J3" s="11">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -14708,25 +14743,31 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <v>2.6781642269999999</v>
+      </c>
+      <c r="D4">
+        <v>28.15940032</v>
+      </c>
+      <c r="E4">
         <v>94</v>
       </c>
-      <c r="D4">
-        <v>107</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="F4">
+        <v>107</v>
+      </c>
+      <c r="G4" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="G4">
-        <v>84</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="I4">
+        <v>84</v>
+      </c>
+      <c r="J4" s="11">
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -14734,25 +14775,31 @@
         <v>14</v>
       </c>
       <c r="C5">
+        <v>17.578170620000002</v>
+      </c>
+      <c r="D5">
+        <v>-12.33724746</v>
+      </c>
+      <c r="E5">
         <v>90</v>
       </c>
-      <c r="D5">
-        <v>107</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="F5">
+        <v>107</v>
+      </c>
+      <c r="G5" s="11">
         <v>84.112149532710305</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>22</v>
       </c>
-      <c r="G5">
-        <v>84</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="I5">
+        <v>84</v>
+      </c>
+      <c r="J5" s="11">
         <v>26.1904761904762</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -14760,25 +14807,31 @@
         <v>16</v>
       </c>
       <c r="C6">
+        <v>50.010647249999998</v>
+      </c>
+      <c r="D6">
+        <v>40.392295439999998</v>
+      </c>
+      <c r="E6">
         <v>90</v>
       </c>
-      <c r="D6">
-        <v>107</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="F6">
+        <v>107</v>
+      </c>
+      <c r="G6" s="11">
         <v>84.112149532710305</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>29</v>
       </c>
-      <c r="G6">
-        <v>84</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="J6" s="11">
         <v>34.523809523809497</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -14786,25 +14839,31 @@
         <v>17</v>
       </c>
       <c r="C7">
+        <v>-65.145632739999996</v>
+      </c>
+      <c r="D7">
+        <v>-35.194462549999997</v>
+      </c>
+      <c r="E7">
         <v>95</v>
       </c>
-      <c r="D7">
-        <v>107</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="F7">
+        <v>107</v>
+      </c>
+      <c r="G7" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>26</v>
       </c>
-      <c r="G7">
-        <v>84</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="I7">
+        <v>84</v>
+      </c>
+      <c r="J7" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>48</v>
       </c>
@@ -14812,25 +14871,31 @@
         <v>21</v>
       </c>
       <c r="C8">
+        <v>50.5490754</v>
+      </c>
+      <c r="D8">
+        <v>26.044077470000001</v>
+      </c>
+      <c r="E8">
         <v>75</v>
       </c>
-      <c r="D8">
-        <v>107</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="F8">
+        <v>107</v>
+      </c>
+      <c r="G8" s="11">
         <v>70.093457943925202</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="G8">
-        <v>84</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="I8">
+        <v>84</v>
+      </c>
+      <c r="J8" s="11">
         <v>13.0952380952381</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -14838,25 +14903,31 @@
         <v>22</v>
       </c>
       <c r="C9">
+        <v>89.176607880000006</v>
+      </c>
+      <c r="D9">
+        <v>22.869616220000001</v>
+      </c>
+      <c r="E9">
         <v>94</v>
       </c>
-      <c r="D9">
-        <v>107</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="F9">
+        <v>107</v>
+      </c>
+      <c r="G9" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>21</v>
       </c>
-      <c r="G9">
-        <v>84</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="I9">
+        <v>84</v>
+      </c>
+      <c r="J9" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>51</v>
       </c>
@@ -14864,25 +14935,31 @@
         <v>23</v>
       </c>
       <c r="C10">
+        <v>44.938393169999998</v>
+      </c>
+      <c r="D10">
+        <v>40.294997410000001</v>
+      </c>
+      <c r="E10">
         <v>92</v>
       </c>
-      <c r="D10">
-        <v>107</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="F10">
+        <v>107</v>
+      </c>
+      <c r="G10" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>35</v>
       </c>
-      <c r="G10">
-        <v>84</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="I10">
+        <v>84</v>
+      </c>
+      <c r="J10" s="11">
         <v>41.6666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>52</v>
       </c>
@@ -14890,25 +14967,31 @@
         <v>24</v>
       </c>
       <c r="C11">
+        <v>-59.534648900000001</v>
+      </c>
+      <c r="D11">
+        <v>13.136482730000001</v>
+      </c>
+      <c r="E11">
         <v>81</v>
       </c>
-      <c r="D11">
-        <v>107</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="F11">
+        <v>107</v>
+      </c>
+      <c r="G11" s="11">
         <v>75.700934579439206</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="G11">
-        <v>84</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="I11">
+        <v>84</v>
+      </c>
+      <c r="J11" s="11">
         <v>19.047619047619001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>64</v>
       </c>
@@ -14916,25 +14999,31 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>90.450984840000004</v>
       </c>
       <c r="D12">
-        <v>107</v>
-      </c>
-      <c r="E12" s="11">
+        <v>27.395985679999999</v>
+      </c>
+      <c r="E12">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>107</v>
+      </c>
+      <c r="G12" s="11">
         <v>78.504672897196301</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>25</v>
       </c>
-      <c r="G12">
-        <v>84</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="I12">
+        <v>84</v>
+      </c>
+      <c r="J12" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>68</v>
       </c>
@@ -14942,25 +15031,31 @@
         <v>27</v>
       </c>
       <c r="C13">
+        <v>-64.662242840000005</v>
+      </c>
+      <c r="D13">
+        <v>-16.71273412</v>
+      </c>
+      <c r="E13">
         <v>94</v>
       </c>
-      <c r="D13">
-        <v>107</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="F13">
+        <v>107</v>
+      </c>
+      <c r="G13" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>26</v>
       </c>
-      <c r="G13">
-        <v>84</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="I13">
+        <v>84</v>
+      </c>
+      <c r="J13" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>70</v>
       </c>
@@ -14968,25 +15063,31 @@
         <v>28</v>
       </c>
       <c r="C14">
+        <v>17.785843320000001</v>
+      </c>
+      <c r="D14">
+        <v>44.168455479999999</v>
+      </c>
+      <c r="E14">
         <v>89</v>
       </c>
-      <c r="D14">
-        <v>107</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="F14">
+        <v>107</v>
+      </c>
+      <c r="G14" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>14</v>
       </c>
-      <c r="G14">
-        <v>84</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="I14">
+        <v>84</v>
+      </c>
+      <c r="J14" s="11">
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>72</v>
       </c>
@@ -14994,25 +15095,31 @@
         <v>29</v>
       </c>
       <c r="C15">
+        <v>23.81380223</v>
+      </c>
+      <c r="D15">
+        <v>-22.188100729999999</v>
+      </c>
+      <c r="E15">
         <v>91</v>
       </c>
-      <c r="D15">
-        <v>107</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="F15">
+        <v>107</v>
+      </c>
+      <c r="G15" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>21</v>
       </c>
-      <c r="G15">
-        <v>84</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="I15">
+        <v>84</v>
+      </c>
+      <c r="J15" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>76</v>
       </c>
@@ -15020,25 +15127,31 @@
         <v>30</v>
       </c>
       <c r="C16">
+        <v>-53.08432878</v>
+      </c>
+      <c r="D16">
+        <v>-10.776685609999999</v>
+      </c>
+      <c r="E16">
         <v>96</v>
       </c>
-      <c r="D16">
-        <v>107</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="F16">
+        <v>107</v>
+      </c>
+      <c r="G16" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>25</v>
       </c>
-      <c r="G16">
-        <v>84</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="I16">
+        <v>84</v>
+      </c>
+      <c r="J16" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>84</v>
       </c>
@@ -15046,25 +15159,31 @@
         <v>31</v>
       </c>
       <c r="C17">
+        <v>-88.701995539999999</v>
+      </c>
+      <c r="D17">
+        <v>17.199659010000001</v>
+      </c>
+      <c r="E17">
         <v>83</v>
       </c>
-      <c r="D17">
-        <v>107</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="F17">
+        <v>107</v>
+      </c>
+      <c r="G17" s="11">
         <v>77.570093457943898</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>21</v>
       </c>
-      <c r="G17">
-        <v>84</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="I17">
+        <v>84</v>
+      </c>
+      <c r="J17" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>104</v>
       </c>
@@ -15072,25 +15191,31 @@
         <v>35</v>
       </c>
       <c r="C18">
+        <v>96.51752295</v>
+      </c>
+      <c r="D18">
+        <v>21.193328820000001</v>
+      </c>
+      <c r="E18">
         <v>89</v>
       </c>
-      <c r="D18">
-        <v>107</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="F18">
+        <v>107</v>
+      </c>
+      <c r="G18" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>25</v>
       </c>
-      <c r="G18">
-        <v>84</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="I18">
+        <v>84</v>
+      </c>
+      <c r="J18" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>108</v>
       </c>
@@ -15098,25 +15223,31 @@
         <v>36</v>
       </c>
       <c r="C19">
+        <v>29.890809919999999</v>
+      </c>
+      <c r="D19">
+        <v>-3.3663874279999999</v>
+      </c>
+      <c r="E19">
         <v>92</v>
       </c>
-      <c r="D19">
-        <v>107</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="F19">
+        <v>107</v>
+      </c>
+      <c r="G19" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>17</v>
       </c>
-      <c r="G19">
-        <v>84</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="I19">
+        <v>84</v>
+      </c>
+      <c r="J19" s="11">
         <v>20.238095238095202</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>112</v>
       </c>
@@ -15124,25 +15255,31 @@
         <v>37</v>
       </c>
       <c r="C20">
+        <v>28.04940161</v>
+      </c>
+      <c r="D20">
+        <v>53.541930749999999</v>
+      </c>
+      <c r="E20">
         <v>90</v>
       </c>
-      <c r="D20">
-        <v>107</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="F20">
+        <v>107</v>
+      </c>
+      <c r="G20" s="11">
         <v>84.112149532710305</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>22</v>
       </c>
-      <c r="G20">
-        <v>84</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="I20">
+        <v>84</v>
+      </c>
+      <c r="J20" s="11">
         <v>26.1904761904762</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>116</v>
       </c>
@@ -15150,25 +15287,31 @@
         <v>38</v>
       </c>
       <c r="C21">
+        <v>104.922836</v>
+      </c>
+      <c r="D21">
+        <v>12.71163737</v>
+      </c>
+      <c r="E21">
         <v>93</v>
       </c>
-      <c r="D21">
-        <v>107</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="F21">
+        <v>107</v>
+      </c>
+      <c r="G21" s="11">
         <v>86.9158878504673</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>26</v>
       </c>
-      <c r="G21">
-        <v>84</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="I21">
+        <v>84</v>
+      </c>
+      <c r="J21" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>120</v>
       </c>
@@ -15176,25 +15319,31 @@
         <v>39</v>
       </c>
       <c r="C22">
+        <v>12.741982699999999</v>
+      </c>
+      <c r="D22">
+        <v>5.692387031</v>
+      </c>
+      <c r="E22">
         <v>91</v>
       </c>
-      <c r="D22">
-        <v>107</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="F22">
+        <v>107</v>
+      </c>
+      <c r="G22" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>25</v>
       </c>
-      <c r="G22">
-        <v>84</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="I22">
+        <v>84</v>
+      </c>
+      <c r="J22" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>132</v>
       </c>
@@ -15202,25 +15351,31 @@
         <v>41</v>
       </c>
       <c r="C23">
+        <v>-23.63544151</v>
+      </c>
+      <c r="D23">
+        <v>15.07791834</v>
+      </c>
+      <c r="E23">
         <v>86</v>
       </c>
-      <c r="D23">
-        <v>107</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="F23">
+        <v>107</v>
+      </c>
+      <c r="G23" s="11">
         <v>80.373831775700907</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>19</v>
       </c>
-      <c r="G23">
-        <v>84</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="I23">
+        <v>84</v>
+      </c>
+      <c r="J23" s="11">
         <v>22.619047619047599</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>140</v>
       </c>
@@ -15228,25 +15383,31 @@
         <v>42</v>
       </c>
       <c r="C24">
+        <v>20.93559492</v>
+      </c>
+      <c r="D24">
+        <v>7.0037207910000001</v>
+      </c>
+      <c r="E24">
         <v>78</v>
       </c>
-      <c r="D24">
-        <v>107</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="F24">
+        <v>107</v>
+      </c>
+      <c r="G24" s="11">
         <v>72.897196261682197</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>13</v>
       </c>
-      <c r="G24">
-        <v>84</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="I24">
+        <v>84</v>
+      </c>
+      <c r="J24" s="11">
         <v>15.476190476190499</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>144</v>
       </c>
@@ -15254,25 +15415,31 @@
         <v>43</v>
       </c>
       <c r="C25">
+        <v>80.704896539999993</v>
+      </c>
+      <c r="D25">
+        <v>7.6146933429999999</v>
+      </c>
+      <c r="E25">
         <v>94</v>
       </c>
-      <c r="D25">
-        <v>107</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="F25">
+        <v>107</v>
+      </c>
+      <c r="G25" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>24</v>
       </c>
-      <c r="G25">
-        <v>84</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="I25">
+        <v>84</v>
+      </c>
+      <c r="J25" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>148</v>
       </c>
@@ -15280,25 +15447,31 @@
         <v>44</v>
       </c>
       <c r="C26">
+        <v>18.666184009999998</v>
+      </c>
+      <c r="D26">
+        <v>15.36279341</v>
+      </c>
+      <c r="E26">
         <v>81</v>
       </c>
-      <c r="D26">
-        <v>107</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="F26">
+        <v>107</v>
+      </c>
+      <c r="G26" s="11">
         <v>75.700934579439206</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>19</v>
       </c>
-      <c r="G26">
-        <v>84</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="I26">
+        <v>84</v>
+      </c>
+      <c r="J26" s="11">
         <v>22.619047619047599</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>152</v>
       </c>
@@ -15306,25 +15479,31 @@
         <v>45</v>
       </c>
       <c r="C27">
+        <v>-71.230290190000005</v>
+      </c>
+      <c r="D27">
+        <v>-35.265288499999997</v>
+      </c>
+      <c r="E27">
         <v>94</v>
       </c>
-      <c r="D27">
-        <v>107</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="F27">
+        <v>107</v>
+      </c>
+      <c r="G27" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>30</v>
       </c>
-      <c r="G27">
-        <v>84</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="I27">
+        <v>84</v>
+      </c>
+      <c r="J27" s="11">
         <v>35.714285714285701</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>156</v>
       </c>
@@ -15332,25 +15511,31 @@
         <v>46</v>
       </c>
       <c r="C28">
+        <v>104.1403375</v>
+      </c>
+      <c r="D28">
+        <v>32.309552170000003</v>
+      </c>
+      <c r="E28">
         <v>89</v>
       </c>
-      <c r="D28">
-        <v>107</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="F28">
+        <v>107</v>
+      </c>
+      <c r="G28" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>16</v>
       </c>
-      <c r="G28">
-        <v>84</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="I28">
+        <v>84</v>
+      </c>
+      <c r="J28" s="11">
         <v>19.047619047619001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>170</v>
       </c>
@@ -15358,25 +15543,31 @@
         <v>47</v>
       </c>
       <c r="C29">
+        <v>-73.074467510000005</v>
+      </c>
+      <c r="D29">
+        <v>3.8882090460000001</v>
+      </c>
+      <c r="E29">
         <v>96</v>
       </c>
-      <c r="D29">
-        <v>107</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="F29">
+        <v>107</v>
+      </c>
+      <c r="G29" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>38</v>
       </c>
-      <c r="G29">
-        <v>84</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="I29">
+        <v>84</v>
+      </c>
+      <c r="J29" s="11">
         <v>45.238095238095198</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>174</v>
       </c>
@@ -15384,25 +15575,31 @@
         <v>48</v>
       </c>
       <c r="C30">
+        <v>43.342345649999999</v>
+      </c>
+      <c r="D30">
+        <v>-11.66121732</v>
+      </c>
+      <c r="E30">
         <v>85</v>
       </c>
-      <c r="D30">
-        <v>107</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="F30">
+        <v>107</v>
+      </c>
+      <c r="G30" s="11">
         <v>79.439252336448604</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>21</v>
       </c>
-      <c r="G30">
-        <v>84</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="I30">
+        <v>84</v>
+      </c>
+      <c r="J30" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>178</v>
       </c>
@@ -15410,25 +15607,31 @@
         <v>49</v>
       </c>
       <c r="C31">
+        <v>15.220526120000001</v>
+      </c>
+      <c r="D31">
+        <v>-0.84054411900000003</v>
+      </c>
+      <c r="E31">
         <v>89</v>
       </c>
-      <c r="D31">
-        <v>107</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="F31">
+        <v>107</v>
+      </c>
+      <c r="G31" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>14</v>
       </c>
-      <c r="G31">
-        <v>84</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="I31">
+        <v>84</v>
+      </c>
+      <c r="J31" s="11">
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>180</v>
       </c>
@@ -15436,25 +15639,31 @@
         <v>50</v>
       </c>
       <c r="C32">
+        <v>23.654965069999999</v>
+      </c>
+      <c r="D32">
+        <v>-2.8771547320000002</v>
+      </c>
+      <c r="E32">
         <v>89</v>
       </c>
-      <c r="D32">
-        <v>107</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="F32">
+        <v>107</v>
+      </c>
+      <c r="G32" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>18</v>
       </c>
-      <c r="G32">
-        <v>84</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="I32">
+        <v>84</v>
+      </c>
+      <c r="J32" s="11">
         <v>21.428571428571399</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>188</v>
       </c>
@@ -15462,25 +15671,31 @@
         <v>51</v>
       </c>
       <c r="C33">
+        <v>-84.197127820000006</v>
+      </c>
+      <c r="D33">
+        <v>9.9709986829999995</v>
+      </c>
+      <c r="E33">
         <v>96</v>
       </c>
-      <c r="D33">
-        <v>107</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="F33">
+        <v>107</v>
+      </c>
+      <c r="G33" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>32</v>
       </c>
-      <c r="G33">
-        <v>84</v>
-      </c>
-      <c r="H33" s="11">
+      <c r="I33">
+        <v>84</v>
+      </c>
+      <c r="J33" s="11">
         <v>38.095238095238102</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>192</v>
       </c>
@@ -15488,25 +15703,31 @@
         <v>53</v>
       </c>
       <c r="C34">
+        <v>-79.544601439999994</v>
+      </c>
+      <c r="D34">
+        <v>22.100303660000002</v>
+      </c>
+      <c r="E34">
         <v>83</v>
       </c>
-      <c r="D34">
-        <v>107</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="F34">
+        <v>107</v>
+      </c>
+      <c r="G34" s="11">
         <v>77.570093457943898</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>12</v>
       </c>
-      <c r="G34">
-        <v>84</v>
-      </c>
-      <c r="H34" s="11">
+      <c r="I34">
+        <v>84</v>
+      </c>
+      <c r="J34" s="11">
         <v>14.285714285714301</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>204</v>
       </c>
@@ -15514,25 +15735,31 @@
         <v>56</v>
       </c>
       <c r="C35">
+        <v>2.3399335940000001</v>
+      </c>
+      <c r="D35">
+        <v>9.6540164599999994</v>
+      </c>
+      <c r="E35">
         <v>90</v>
       </c>
-      <c r="D35">
-        <v>107</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="F35">
+        <v>107</v>
+      </c>
+      <c r="G35" s="11">
         <v>84.112149532710305</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>18</v>
       </c>
-      <c r="G35">
-        <v>84</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="I35">
+        <v>84</v>
+      </c>
+      <c r="J35" s="11">
         <v>21.428571428571399</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>214</v>
       </c>
@@ -15540,25 +15767,31 @@
         <v>59</v>
       </c>
       <c r="C36">
+        <v>-70.498475760000005</v>
+      </c>
+      <c r="D36">
+        <v>18.89832088</v>
+      </c>
+      <c r="E36">
         <v>92</v>
       </c>
-      <c r="D36">
-        <v>107</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="F36">
+        <v>107</v>
+      </c>
+      <c r="G36" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>27</v>
       </c>
-      <c r="G36">
-        <v>84</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="I36">
+        <v>84</v>
+      </c>
+      <c r="J36" s="11">
         <v>32.142857142857103</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>218</v>
       </c>
@@ -15566,25 +15799,31 @@
         <v>60</v>
       </c>
       <c r="C37">
+        <v>-78.37005241</v>
+      </c>
+      <c r="D37">
+        <v>-1.4477858910000001</v>
+      </c>
+      <c r="E37">
         <v>96</v>
       </c>
-      <c r="D37">
-        <v>107</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="F37">
+        <v>107</v>
+      </c>
+      <c r="G37" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>36</v>
       </c>
-      <c r="G37">
-        <v>84</v>
-      </c>
-      <c r="H37" s="11">
+      <c r="I37">
+        <v>84</v>
+      </c>
+      <c r="J37" s="11">
         <v>42.857142857142897</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>222</v>
       </c>
@@ -15592,25 +15831,31 @@
         <v>61</v>
       </c>
       <c r="C38">
+        <v>-88.868629949999999</v>
+      </c>
+      <c r="D38">
+        <v>13.736035640000001</v>
+      </c>
+      <c r="E38">
         <v>92</v>
       </c>
-      <c r="D38">
-        <v>107</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="F38">
+        <v>107</v>
+      </c>
+      <c r="G38" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>34</v>
       </c>
-      <c r="G38">
-        <v>84</v>
-      </c>
-      <c r="H38" s="11">
+      <c r="I38">
+        <v>84</v>
+      </c>
+      <c r="J38" s="11">
         <v>40.476190476190503</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>226</v>
       </c>
@@ -15618,25 +15863,31 @@
         <v>62</v>
       </c>
       <c r="C39">
+        <v>10.46535826</v>
+      </c>
+      <c r="D39">
+        <v>1.5657923760000001</v>
+      </c>
+      <c r="E39">
         <v>76</v>
       </c>
-      <c r="D39">
-        <v>107</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="F39">
+        <v>107</v>
+      </c>
+      <c r="G39" s="11">
         <v>71.028037383177605</v>
       </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>84</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>84</v>
+      </c>
+      <c r="J39" s="11">
         <v>11.9047619047619</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>231</v>
       </c>
@@ -15644,25 +15895,31 @@
         <v>63</v>
       </c>
       <c r="C40">
+        <v>39.635052960000003</v>
+      </c>
+      <c r="D40">
+        <v>8.6312231809999993</v>
+      </c>
+      <c r="E40">
         <v>95</v>
       </c>
-      <c r="D40">
-        <v>107</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="F40">
+        <v>107</v>
+      </c>
+      <c r="G40" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>26</v>
       </c>
-      <c r="G40">
-        <v>84</v>
-      </c>
-      <c r="H40" s="11">
+      <c r="I40">
+        <v>84</v>
+      </c>
+      <c r="J40" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>232</v>
       </c>
@@ -15670,25 +15927,31 @@
         <v>64</v>
       </c>
       <c r="C41">
+        <v>38.110742889999997</v>
+      </c>
+      <c r="D41">
+        <v>16.12894644</v>
+      </c>
+      <c r="E41">
         <v>77</v>
       </c>
-      <c r="D41">
-        <v>107</v>
-      </c>
-      <c r="E41" s="11">
+      <c r="F41">
+        <v>107</v>
+      </c>
+      <c r="G41" s="11">
         <v>71.962616822429894</v>
       </c>
-      <c r="F41">
-        <v>8</v>
-      </c>
-      <c r="G41">
-        <v>84</v>
-      </c>
-      <c r="H41" s="11">
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>84</v>
+      </c>
+      <c r="J41" s="11">
         <v>9.5238095238095202</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>242</v>
       </c>
@@ -15696,25 +15959,31 @@
         <v>66</v>
       </c>
       <c r="C42">
+        <v>177.96608839999999</v>
+      </c>
+      <c r="D42">
+        <v>-17.833015660000001</v>
+      </c>
+      <c r="E42">
         <v>87</v>
       </c>
-      <c r="D42">
-        <v>107</v>
-      </c>
-      <c r="E42" s="11">
+      <c r="F42">
+        <v>107</v>
+      </c>
+      <c r="G42" s="11">
         <v>81.308411214953296</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>20</v>
       </c>
-      <c r="G42">
-        <v>84</v>
-      </c>
-      <c r="H42" s="11">
+      <c r="I42">
+        <v>84</v>
+      </c>
+      <c r="J42" s="11">
         <v>23.8095238095238</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>262</v>
       </c>
@@ -15722,25 +15991,31 @@
         <v>69</v>
       </c>
       <c r="C43">
+        <v>42.182747069999998</v>
+      </c>
+      <c r="D43">
+        <v>11.560041610000001</v>
+      </c>
+      <c r="E43">
         <v>85</v>
       </c>
-      <c r="D43">
-        <v>107</v>
-      </c>
-      <c r="E43" s="11">
+      <c r="F43">
+        <v>107</v>
+      </c>
+      <c r="G43" s="11">
         <v>79.439252336448604</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>17</v>
       </c>
-      <c r="G43">
-        <v>84</v>
-      </c>
-      <c r="H43" s="11">
+      <c r="I43">
+        <v>84</v>
+      </c>
+      <c r="J43" s="11">
         <v>20.238095238095202</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>266</v>
       </c>
@@ -15748,25 +16023,31 @@
         <v>70</v>
       </c>
       <c r="C44">
+        <v>11.787277469999999</v>
+      </c>
+      <c r="D44">
+        <v>-0.60687619000000004</v>
+      </c>
+      <c r="E44">
         <v>87</v>
       </c>
-      <c r="D44">
-        <v>107</v>
-      </c>
-      <c r="E44" s="11">
+      <c r="F44">
+        <v>107</v>
+      </c>
+      <c r="G44" s="11">
         <v>81.308411214953296</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>13</v>
       </c>
-      <c r="G44">
-        <v>84</v>
-      </c>
-      <c r="H44" s="11">
+      <c r="I44">
+        <v>84</v>
+      </c>
+      <c r="J44" s="11">
         <v>15.476190476190499</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>268</v>
       </c>
@@ -15774,25 +16055,31 @@
         <v>71</v>
       </c>
       <c r="C45">
+        <v>43.371361499999999</v>
+      </c>
+      <c r="D45">
+        <v>42.048130280000002</v>
+      </c>
+      <c r="E45">
         <v>95</v>
       </c>
-      <c r="D45">
-        <v>107</v>
-      </c>
-      <c r="E45" s="11">
+      <c r="F45">
+        <v>107</v>
+      </c>
+      <c r="G45" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>23</v>
       </c>
-      <c r="G45">
-        <v>84</v>
-      </c>
-      <c r="H45" s="11">
+      <c r="I45">
+        <v>84</v>
+      </c>
+      <c r="J45" s="11">
         <v>27.380952380952401</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>270</v>
       </c>
@@ -15800,25 +16087,31 @@
         <v>72</v>
       </c>
       <c r="C46">
+        <v>-15.39944785</v>
+      </c>
+      <c r="D46">
+        <v>13.452959269999999</v>
+      </c>
+      <c r="E46">
         <v>87</v>
       </c>
-      <c r="D46">
-        <v>107</v>
-      </c>
-      <c r="E46" s="11">
+      <c r="F46">
+        <v>107</v>
+      </c>
+      <c r="G46" s="11">
         <v>81.308411214953296</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>24</v>
       </c>
-      <c r="G46">
-        <v>84</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="I46">
+        <v>84</v>
+      </c>
+      <c r="J46" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>275</v>
       </c>
@@ -15826,25 +16119,31 @@
         <v>204</v>
       </c>
       <c r="C47">
+        <v>35.256941220000002</v>
+      </c>
+      <c r="D47">
+        <v>31.943479329999999</v>
+      </c>
+      <c r="E47">
         <v>62</v>
       </c>
-      <c r="D47">
-        <v>107</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="F47">
+        <v>107</v>
+      </c>
+      <c r="G47" s="11">
         <v>57.943925233644897</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>24</v>
       </c>
-      <c r="G47">
-        <v>84</v>
-      </c>
-      <c r="H47" s="11">
+      <c r="I47">
+        <v>84</v>
+      </c>
+      <c r="J47" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>288</v>
       </c>
@@ -15852,25 +16151,31 @@
         <v>74</v>
       </c>
       <c r="C48">
+        <v>-1.205623522</v>
+      </c>
+      <c r="D48">
+        <v>7.9648251849999996</v>
+      </c>
+      <c r="E48">
         <v>97</v>
       </c>
-      <c r="D48">
-        <v>107</v>
-      </c>
-      <c r="E48" s="11">
+      <c r="F48">
+        <v>107</v>
+      </c>
+      <c r="G48" s="11">
         <v>90.654205607476598</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>23</v>
       </c>
-      <c r="G48">
-        <v>84</v>
-      </c>
-      <c r="H48" s="11">
+      <c r="I48">
+        <v>84</v>
+      </c>
+      <c r="J48" s="11">
         <v>27.380952380952401</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>320</v>
       </c>
@@ -15878,25 +16183,31 @@
         <v>78</v>
       </c>
       <c r="C49">
+        <v>-91.231274600000006</v>
+      </c>
+      <c r="D49">
+        <v>15.00273719</v>
+      </c>
+      <c r="E49">
         <v>95</v>
       </c>
-      <c r="D49">
-        <v>107</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="F49">
+        <v>107</v>
+      </c>
+      <c r="G49" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>32</v>
       </c>
-      <c r="G49">
-        <v>84</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="I49">
+        <v>84</v>
+      </c>
+      <c r="J49" s="11">
         <v>38.095238095238102</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>324</v>
       </c>
@@ -15904,25 +16215,31 @@
         <v>79</v>
       </c>
       <c r="C50">
+        <v>-11.28173419</v>
+      </c>
+      <c r="D50">
+        <v>11.00210343</v>
+      </c>
+      <c r="E50">
         <v>88</v>
       </c>
-      <c r="D50">
-        <v>107</v>
-      </c>
-      <c r="E50" s="11">
+      <c r="F50">
+        <v>107</v>
+      </c>
+      <c r="G50" s="11">
         <v>82.242990654205599</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>26</v>
       </c>
-      <c r="G50">
-        <v>84</v>
-      </c>
-      <c r="H50" s="11">
+      <c r="I50">
+        <v>84</v>
+      </c>
+      <c r="J50" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>328</v>
       </c>
@@ -15930,25 +16247,31 @@
         <v>80</v>
       </c>
       <c r="C51">
+        <v>-58.97322037</v>
+      </c>
+      <c r="D51">
+        <v>4.7880127840000002</v>
+      </c>
+      <c r="E51">
         <v>80</v>
       </c>
-      <c r="D51">
-        <v>107</v>
-      </c>
-      <c r="E51" s="11">
+      <c r="F51">
+        <v>107</v>
+      </c>
+      <c r="G51" s="11">
         <v>74.766355140186903</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>20</v>
       </c>
-      <c r="G51">
-        <v>84</v>
-      </c>
-      <c r="H51" s="11">
+      <c r="I51">
+        <v>84</v>
+      </c>
+      <c r="J51" s="11">
         <v>23.8095238095238</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>332</v>
       </c>
@@ -15956,25 +16279,31 @@
         <v>81</v>
       </c>
       <c r="C52">
-        <v>84</v>
+        <v>-72.336409579999994</v>
       </c>
       <c r="D52">
-        <v>107</v>
-      </c>
-      <c r="E52" s="11">
+        <v>18.404265389999999</v>
+      </c>
+      <c r="E52">
+        <v>84</v>
+      </c>
+      <c r="F52">
+        <v>107</v>
+      </c>
+      <c r="G52" s="11">
         <v>78.504672897196301</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>12</v>
       </c>
-      <c r="G52">
-        <v>84</v>
-      </c>
-      <c r="H52" s="11">
+      <c r="I52">
+        <v>84</v>
+      </c>
+      <c r="J52" s="11">
         <v>14.285714285714301</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>340</v>
       </c>
@@ -15982,25 +16311,31 @@
         <v>82</v>
       </c>
       <c r="C53">
+        <v>-86.599743810000007</v>
+      </c>
+      <c r="D53">
+        <v>14.822431610000001</v>
+      </c>
+      <c r="E53">
         <v>94</v>
       </c>
-      <c r="D53">
-        <v>107</v>
-      </c>
-      <c r="E53" s="11">
+      <c r="F53">
+        <v>107</v>
+      </c>
+      <c r="G53" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>31</v>
       </c>
-      <c r="G53">
-        <v>84</v>
-      </c>
-      <c r="H53" s="11">
+      <c r="I53">
+        <v>84</v>
+      </c>
+      <c r="J53" s="11">
         <v>36.904761904761898</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>356</v>
       </c>
@@ -16008,25 +16343,31 @@
         <v>85</v>
       </c>
       <c r="C54">
+        <v>79.3608464</v>
+      </c>
+      <c r="D54">
+        <v>22.346420739999999</v>
+      </c>
+      <c r="E54">
         <v>95</v>
       </c>
-      <c r="D54">
-        <v>107</v>
-      </c>
-      <c r="E54" s="11">
+      <c r="F54">
+        <v>107</v>
+      </c>
+      <c r="G54" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>20</v>
       </c>
-      <c r="G54">
-        <v>84</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="I54">
+        <v>84</v>
+      </c>
+      <c r="J54" s="11">
         <v>23.8095238095238</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>360</v>
       </c>
@@ -16034,25 +16375,31 @@
         <v>86</v>
       </c>
       <c r="C55">
+        <v>113.9174</v>
+      </c>
+      <c r="D55">
+        <v>-0.99458220399999997</v>
+      </c>
+      <c r="E55">
         <v>96</v>
       </c>
-      <c r="D55">
-        <v>107</v>
-      </c>
-      <c r="E55" s="11">
+      <c r="F55">
+        <v>107</v>
+      </c>
+      <c r="G55" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>17</v>
       </c>
-      <c r="G55">
-        <v>84</v>
-      </c>
-      <c r="H55" s="11">
+      <c r="I55">
+        <v>84</v>
+      </c>
+      <c r="J55" s="11">
         <v>20.238095238095202</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>364</v>
       </c>
@@ -16060,25 +16407,31 @@
         <v>87</v>
       </c>
       <c r="C56">
+        <v>54.197663480000003</v>
+      </c>
+      <c r="D56">
+        <v>32.743708849999997</v>
+      </c>
+      <c r="E56">
         <v>93</v>
       </c>
-      <c r="D56">
-        <v>107</v>
-      </c>
-      <c r="E56" s="11">
+      <c r="F56">
+        <v>107</v>
+      </c>
+      <c r="G56" s="11">
         <v>86.9158878504673</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>20</v>
       </c>
-      <c r="G56">
-        <v>84</v>
-      </c>
-      <c r="H56" s="11">
+      <c r="I56">
+        <v>84</v>
+      </c>
+      <c r="J56" s="11">
         <v>23.8095238095238</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>368</v>
       </c>
@@ -16086,25 +16439,31 @@
         <v>88</v>
       </c>
       <c r="C57">
+        <v>43.766062669999997</v>
+      </c>
+      <c r="D57">
+        <v>33.05013795</v>
+      </c>
+      <c r="E57">
         <v>85</v>
       </c>
-      <c r="D57">
-        <v>107</v>
-      </c>
-      <c r="E57" s="11">
+      <c r="F57">
+        <v>107</v>
+      </c>
+      <c r="G57" s="11">
         <v>79.439252336448604</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>13</v>
       </c>
-      <c r="G57">
-        <v>84</v>
-      </c>
-      <c r="H57" s="11">
+      <c r="I57">
+        <v>84</v>
+      </c>
+      <c r="J57" s="11">
         <v>15.476190476190499</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>384</v>
       </c>
@@ -16112,25 +16471,31 @@
         <v>92</v>
       </c>
       <c r="C58">
+        <v>-5.5526900159999997</v>
+      </c>
+      <c r="D58">
+        <v>7.6221158600000001</v>
+      </c>
+      <c r="E58">
         <v>92</v>
       </c>
-      <c r="D58">
-        <v>107</v>
-      </c>
-      <c r="E58" s="11">
+      <c r="F58">
+        <v>107</v>
+      </c>
+      <c r="G58" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>25</v>
       </c>
-      <c r="G58">
-        <v>84</v>
-      </c>
-      <c r="H58" s="11">
+      <c r="I58">
+        <v>84</v>
+      </c>
+      <c r="J58" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>388</v>
       </c>
@@ -16138,25 +16503,31 @@
         <v>93</v>
       </c>
       <c r="C59">
+        <v>-77.310684089999995</v>
+      </c>
+      <c r="D59">
+        <v>18.156168569999998</v>
+      </c>
+      <c r="E59">
         <v>93</v>
       </c>
-      <c r="D59">
-        <v>107</v>
-      </c>
-      <c r="E59" s="11">
+      <c r="F59">
+        <v>107</v>
+      </c>
+      <c r="G59" s="11">
         <v>86.9158878504673</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>24</v>
       </c>
-      <c r="G59">
-        <v>84</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="I59">
+        <v>84</v>
+      </c>
+      <c r="J59" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>398</v>
       </c>
@@ -16164,25 +16535,31 @@
         <v>95</v>
       </c>
       <c r="C60">
+        <v>66.653591590000005</v>
+      </c>
+      <c r="D60">
+        <v>48.019634940000003</v>
+      </c>
+      <c r="E60">
         <v>94</v>
       </c>
-      <c r="D60">
-        <v>107</v>
-      </c>
-      <c r="E60" s="11">
+      <c r="F60">
+        <v>107</v>
+      </c>
+      <c r="G60" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>29</v>
       </c>
-      <c r="G60">
-        <v>84</v>
-      </c>
-      <c r="H60" s="11">
+      <c r="I60">
+        <v>84</v>
+      </c>
+      <c r="J60" s="11">
         <v>34.523809523809497</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>400</v>
       </c>
@@ -16190,25 +16567,31 @@
         <v>96</v>
       </c>
       <c r="C61">
+        <v>37.130247740000001</v>
+      </c>
+      <c r="D61">
+        <v>30.653659730000001</v>
+      </c>
+      <c r="E61">
         <v>91</v>
       </c>
-      <c r="D61">
-        <v>107</v>
-      </c>
-      <c r="E61" s="11">
+      <c r="F61">
+        <v>107</v>
+      </c>
+      <c r="G61" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>26</v>
       </c>
-      <c r="G61">
-        <v>84</v>
-      </c>
-      <c r="H61" s="11">
+      <c r="I61">
+        <v>84</v>
+      </c>
+      <c r="J61" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>404</v>
       </c>
@@ -16216,25 +16599,31 @@
         <v>97</v>
       </c>
       <c r="C62">
+        <v>37.860968159999999</v>
+      </c>
+      <c r="D62">
+        <v>0.53479727799999999</v>
+      </c>
+      <c r="E62">
         <v>94</v>
       </c>
-      <c r="D62">
-        <v>107</v>
-      </c>
-      <c r="E62" s="11">
+      <c r="F62">
+        <v>107</v>
+      </c>
+      <c r="G62" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>28</v>
       </c>
-      <c r="G62">
-        <v>84</v>
-      </c>
-      <c r="H62" s="11">
+      <c r="I62">
+        <v>84</v>
+      </c>
+      <c r="J62" s="11">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>408</v>
       </c>
@@ -16242,25 +16631,31 @@
         <v>98</v>
       </c>
       <c r="C63">
+        <v>127.1803633</v>
+      </c>
+      <c r="D63">
+        <v>40.146264500000001</v>
+      </c>
+      <c r="E63">
         <v>68</v>
       </c>
-      <c r="D63">
-        <v>107</v>
-      </c>
-      <c r="E63" s="11">
+      <c r="F63">
+        <v>107</v>
+      </c>
+      <c r="G63" s="11">
         <v>63.551401869158902</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>84</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>84</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>414</v>
       </c>
@@ -16268,25 +16663,31 @@
         <v>100</v>
       </c>
       <c r="C64">
+        <v>47.493050289999999</v>
+      </c>
+      <c r="D64">
+        <v>29.539494680000001</v>
+      </c>
+      <c r="E64">
         <v>72</v>
       </c>
-      <c r="D64">
-        <v>107</v>
-      </c>
-      <c r="E64" s="11">
+      <c r="F64">
+        <v>107</v>
+      </c>
+      <c r="G64" s="11">
         <v>67.289719626168207</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>16</v>
       </c>
-      <c r="G64">
-        <v>84</v>
-      </c>
-      <c r="H64" s="11">
+      <c r="I64">
+        <v>84</v>
+      </c>
+      <c r="J64" s="11">
         <v>19.047619047619001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>417</v>
       </c>
@@ -16294,25 +16695,31 @@
         <v>101</v>
       </c>
       <c r="C65">
+        <v>74.523248390000006</v>
+      </c>
+      <c r="D65">
+        <v>41.462045160000002</v>
+      </c>
+      <c r="E65">
         <v>94</v>
       </c>
-      <c r="D65">
-        <v>107</v>
-      </c>
-      <c r="E65" s="11">
+      <c r="F65">
+        <v>107</v>
+      </c>
+      <c r="G65" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>29</v>
       </c>
-      <c r="G65">
-        <v>84</v>
-      </c>
-      <c r="H65" s="11">
+      <c r="I65">
+        <v>84</v>
+      </c>
+      <c r="J65" s="11">
         <v>34.523809523809497</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>418</v>
       </c>
@@ -16320,25 +16727,31 @@
         <v>102</v>
       </c>
       <c r="C66">
+        <v>101.99019680000001</v>
+      </c>
+      <c r="D66">
+        <v>20.274827729999998</v>
+      </c>
+      <c r="E66">
         <v>89</v>
       </c>
-      <c r="D66">
-        <v>107</v>
-      </c>
-      <c r="E66" s="11">
+      <c r="F66">
+        <v>107</v>
+      </c>
+      <c r="G66" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>24</v>
       </c>
-      <c r="G66">
-        <v>84</v>
-      </c>
-      <c r="H66" s="11">
+      <c r="I66">
+        <v>84</v>
+      </c>
+      <c r="J66" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>422</v>
       </c>
@@ -16346,25 +16759,31 @@
         <v>103</v>
       </c>
       <c r="C67">
+        <v>35.893917109999997</v>
+      </c>
+      <c r="D67">
+        <v>33.921524580000003</v>
+      </c>
+      <c r="E67">
         <v>89</v>
       </c>
-      <c r="D67">
-        <v>107</v>
-      </c>
-      <c r="E67" s="11">
+      <c r="F67">
+        <v>107</v>
+      </c>
+      <c r="G67" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>19</v>
       </c>
-      <c r="G67">
-        <v>84</v>
-      </c>
-      <c r="H67" s="11">
+      <c r="I67">
+        <v>84</v>
+      </c>
+      <c r="J67" s="11">
         <v>22.619047619047599</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>426</v>
       </c>
@@ -16372,25 +16791,31 @@
         <v>104</v>
       </c>
       <c r="C68">
+        <v>28.253621949999999</v>
+      </c>
+      <c r="D68">
+        <v>-29.580418139999999</v>
+      </c>
+      <c r="E68">
         <v>91</v>
       </c>
-      <c r="D68">
-        <v>107</v>
-      </c>
-      <c r="E68" s="11">
+      <c r="F68">
+        <v>107</v>
+      </c>
+      <c r="G68" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>15</v>
       </c>
-      <c r="G68">
-        <v>84</v>
-      </c>
-      <c r="H68" s="11">
+      <c r="I68">
+        <v>84</v>
+      </c>
+      <c r="J68" s="11">
         <v>17.8571428571429</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>430</v>
       </c>
@@ -16398,25 +16823,31 @@
         <v>106</v>
       </c>
       <c r="C69">
+        <v>-9.3118790380000007</v>
+      </c>
+      <c r="D69">
+        <v>6.4483810090000002</v>
+      </c>
+      <c r="E69">
         <v>88</v>
       </c>
-      <c r="D69">
-        <v>107</v>
-      </c>
-      <c r="E69" s="11">
+      <c r="F69">
+        <v>107</v>
+      </c>
+      <c r="G69" s="11">
         <v>82.242990654205599</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>28</v>
       </c>
-      <c r="G69">
-        <v>84</v>
-      </c>
-      <c r="H69" s="11">
+      <c r="I69">
+        <v>84</v>
+      </c>
+      <c r="J69" s="11">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>434</v>
       </c>
@@ -16424,25 +16855,31 @@
         <v>107</v>
       </c>
       <c r="C70">
+        <v>18.029598499999999</v>
+      </c>
+      <c r="D70">
+        <v>27.04042819</v>
+      </c>
+      <c r="E70">
         <v>71</v>
       </c>
-      <c r="D70">
-        <v>107</v>
-      </c>
-      <c r="E70" s="11">
+      <c r="F70">
+        <v>107</v>
+      </c>
+      <c r="G70" s="11">
         <v>66.355140186915904</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>84</v>
-      </c>
-      <c r="H70" s="11">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>84</v>
+      </c>
+      <c r="J70" s="11">
         <v>1.19047619047619</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>450</v>
       </c>
@@ -16450,25 +16887,31 @@
         <v>111</v>
       </c>
       <c r="C71">
+        <v>46.698233899999998</v>
+      </c>
+      <c r="D71">
+        <v>-19.385147849999999</v>
+      </c>
+      <c r="E71">
         <v>94</v>
       </c>
-      <c r="D71">
-        <v>107</v>
-      </c>
-      <c r="E71" s="11">
+      <c r="F71">
+        <v>107</v>
+      </c>
+      <c r="G71" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>24</v>
       </c>
-      <c r="G71">
-        <v>84</v>
-      </c>
-      <c r="H71" s="11">
+      <c r="I71">
+        <v>84</v>
+      </c>
+      <c r="J71" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>454</v>
       </c>
@@ -16476,25 +16919,31 @@
         <v>112</v>
       </c>
       <c r="C72">
+        <v>33.488462499999997</v>
+      </c>
+      <c r="D72">
+        <v>-13.40819859</v>
+      </c>
+      <c r="E72">
         <v>91</v>
       </c>
-      <c r="D72">
-        <v>107</v>
-      </c>
-      <c r="E72" s="11">
+      <c r="F72">
+        <v>107</v>
+      </c>
+      <c r="G72" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>26</v>
       </c>
-      <c r="G72">
-        <v>84</v>
-      </c>
-      <c r="H72" s="11">
+      <c r="I72">
+        <v>84</v>
+      </c>
+      <c r="J72" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>458</v>
       </c>
@@ -16502,25 +16951,31 @@
         <v>113</v>
       </c>
       <c r="C73">
+        <v>116.83463140000001</v>
+      </c>
+      <c r="D73">
+        <v>5.452415309</v>
+      </c>
+      <c r="E73">
         <v>93</v>
       </c>
-      <c r="D73">
-        <v>107</v>
-      </c>
-      <c r="E73" s="11">
+      <c r="F73">
+        <v>107</v>
+      </c>
+      <c r="G73" s="11">
         <v>86.9158878504673</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>28</v>
       </c>
-      <c r="G73">
-        <v>84</v>
-      </c>
-      <c r="H73" s="11">
+      <c r="I73">
+        <v>84</v>
+      </c>
+      <c r="J73" s="11">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>462</v>
       </c>
@@ -16528,25 +16983,31 @@
         <v>114</v>
       </c>
       <c r="C74">
-        <v>84</v>
+        <v>73.096725460000002</v>
       </c>
       <c r="D74">
-        <v>107</v>
-      </c>
-      <c r="E74" s="11">
+        <v>-0.61438502100000003</v>
+      </c>
+      <c r="E74">
+        <v>84</v>
+      </c>
+      <c r="F74">
+        <v>107</v>
+      </c>
+      <c r="G74" s="11">
         <v>78.504672897196301</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>17</v>
       </c>
-      <c r="G74">
-        <v>84</v>
-      </c>
-      <c r="H74" s="11">
+      <c r="I74">
+        <v>84</v>
+      </c>
+      <c r="J74" s="11">
         <v>20.238095238095202</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>466</v>
       </c>
@@ -16554,25 +17015,31 @@
         <v>115</v>
       </c>
       <c r="C75">
+        <v>-3.5220160389999999</v>
+      </c>
+      <c r="D75">
+        <v>17.353112540000001</v>
+      </c>
+      <c r="E75">
         <v>92</v>
       </c>
-      <c r="D75">
-        <v>107</v>
-      </c>
-      <c r="E75" s="11">
+      <c r="F75">
+        <v>107</v>
+      </c>
+      <c r="G75" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>27</v>
       </c>
-      <c r="G75">
-        <v>84</v>
-      </c>
-      <c r="H75" s="11">
+      <c r="I75">
+        <v>84</v>
+      </c>
+      <c r="J75" s="11">
         <v>32.142857142857103</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>478</v>
       </c>
@@ -16580,25 +17047,31 @@
         <v>117</v>
       </c>
       <c r="C76">
+        <v>-10.33187259</v>
+      </c>
+      <c r="D76">
+        <v>20.26089546</v>
+      </c>
+      <c r="E76">
         <v>81</v>
       </c>
-      <c r="D76">
-        <v>107</v>
-      </c>
-      <c r="E76" s="11">
+      <c r="F76">
+        <v>107</v>
+      </c>
+      <c r="G76" s="11">
         <v>75.700934579439206</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>18</v>
       </c>
-      <c r="G76">
-        <v>84</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="I76">
+        <v>84</v>
+      </c>
+      <c r="J76" s="11">
         <v>21.428571428571399</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>480</v>
       </c>
@@ -16606,25 +17079,31 @@
         <v>118</v>
       </c>
       <c r="C77">
+        <v>57.568021999999999</v>
+      </c>
+      <c r="D77">
+        <v>-20.285819979999999</v>
+      </c>
+      <c r="E77">
         <v>88</v>
       </c>
-      <c r="D77">
-        <v>107</v>
-      </c>
-      <c r="E77" s="11">
+      <c r="F77">
+        <v>107</v>
+      </c>
+      <c r="G77" s="11">
         <v>82.242990654205599</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>22</v>
       </c>
-      <c r="G77">
-        <v>84</v>
-      </c>
-      <c r="H77" s="11">
+      <c r="I77">
+        <v>84</v>
+      </c>
+      <c r="J77" s="11">
         <v>26.1904761904762</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>484</v>
       </c>
@@ -16632,25 +17111,31 @@
         <v>119</v>
       </c>
       <c r="C78">
+        <v>-102.5148166</v>
+      </c>
+      <c r="D78">
+        <v>23.93378032</v>
+      </c>
+      <c r="E78">
         <v>96</v>
       </c>
-      <c r="D78">
-        <v>107</v>
-      </c>
-      <c r="E78" s="11">
+      <c r="F78">
+        <v>107</v>
+      </c>
+      <c r="G78" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>38</v>
       </c>
-      <c r="G78">
-        <v>84</v>
-      </c>
-      <c r="H78" s="11">
+      <c r="I78">
+        <v>84</v>
+      </c>
+      <c r="J78" s="11">
         <v>45.238095238095198</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>496</v>
       </c>
@@ -16658,25 +17143,31 @@
         <v>121</v>
       </c>
       <c r="C79">
+        <v>103.0728057</v>
+      </c>
+      <c r="D79">
+        <v>46.838920539999997</v>
+      </c>
+      <c r="E79">
         <v>94</v>
       </c>
-      <c r="D79">
-        <v>107</v>
-      </c>
-      <c r="E79" s="11">
+      <c r="F79">
+        <v>107</v>
+      </c>
+      <c r="G79" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>30</v>
       </c>
-      <c r="G79">
-        <v>84</v>
-      </c>
-      <c r="H79" s="11">
+      <c r="I79">
+        <v>84</v>
+      </c>
+      <c r="J79" s="11">
         <v>35.714285714285701</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>498</v>
       </c>
@@ -16684,25 +17175,31 @@
         <v>122</v>
       </c>
       <c r="C80">
+        <v>28.465062400000001</v>
+      </c>
+      <c r="D80">
+        <v>47.202367950000003</v>
+      </c>
+      <c r="E80">
         <v>88</v>
       </c>
-      <c r="D80">
-        <v>107</v>
-      </c>
-      <c r="E80" s="11">
+      <c r="F80">
+        <v>107</v>
+      </c>
+      <c r="G80" s="11">
         <v>82.242990654205599</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>25</v>
       </c>
-      <c r="G80">
-        <v>84</v>
-      </c>
-      <c r="H80" s="11">
+      <c r="I80">
+        <v>84</v>
+      </c>
+      <c r="J80" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>499</v>
       </c>
@@ -16710,25 +17207,31 @@
         <v>123</v>
       </c>
       <c r="C81">
+        <v>19.252140239999999</v>
+      </c>
+      <c r="D81">
+        <v>42.787170430000003</v>
+      </c>
+      <c r="E81">
         <v>89</v>
       </c>
-      <c r="D81">
-        <v>107</v>
-      </c>
-      <c r="E81" s="11">
+      <c r="F81">
+        <v>107</v>
+      </c>
+      <c r="G81" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>18</v>
       </c>
-      <c r="G81">
-        <v>84</v>
-      </c>
-      <c r="H81" s="11">
+      <c r="I81">
+        <v>84</v>
+      </c>
+      <c r="J81" s="11">
         <v>21.428571428571399</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>504</v>
       </c>
@@ -16736,25 +17239,31 @@
         <v>124</v>
       </c>
       <c r="C82">
+        <v>-6.2819428410000002</v>
+      </c>
+      <c r="D82">
+        <v>31.844013100000002</v>
+      </c>
+      <c r="E82">
         <v>95</v>
       </c>
-      <c r="D82">
-        <v>107</v>
-      </c>
-      <c r="E82" s="11">
+      <c r="F82">
+        <v>107</v>
+      </c>
+      <c r="G82" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>26</v>
       </c>
-      <c r="G82">
-        <v>84</v>
-      </c>
-      <c r="H82" s="11">
+      <c r="I82">
+        <v>84</v>
+      </c>
+      <c r="J82" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>508</v>
       </c>
@@ -16762,25 +17271,31 @@
         <v>125</v>
       </c>
       <c r="C83">
+        <v>38.184799409999997</v>
+      </c>
+      <c r="D83">
+        <v>-14.27963886</v>
+      </c>
+      <c r="E83">
         <v>95</v>
       </c>
-      <c r="D83">
-        <v>107</v>
-      </c>
-      <c r="E83" s="11">
+      <c r="F83">
+        <v>107</v>
+      </c>
+      <c r="G83" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>26</v>
       </c>
-      <c r="G83">
-        <v>84</v>
-      </c>
-      <c r="H83" s="11">
+      <c r="I83">
+        <v>84</v>
+      </c>
+      <c r="J83" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>516</v>
       </c>
@@ -16788,25 +17303,31 @@
         <v>127</v>
       </c>
       <c r="C84">
+        <v>17.219078849999999</v>
+      </c>
+      <c r="D84">
+        <v>-22.138170680000002</v>
+      </c>
+      <c r="E84">
         <v>90</v>
       </c>
-      <c r="D84">
-        <v>107</v>
-      </c>
-      <c r="E84" s="11">
+      <c r="F84">
+        <v>107</v>
+      </c>
+      <c r="G84" s="11">
         <v>84.112149532710305</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>16</v>
       </c>
-      <c r="G84">
-        <v>84</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="I84">
+        <v>84</v>
+      </c>
+      <c r="J84" s="11">
         <v>19.047619047619001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>524</v>
       </c>
@@ -16814,25 +17335,31 @@
         <v>129</v>
       </c>
       <c r="C85">
+        <v>83.94678863</v>
+      </c>
+      <c r="D85">
+        <v>28.25866332</v>
+      </c>
+      <c r="E85">
         <v>95</v>
       </c>
-      <c r="D85">
-        <v>107</v>
-      </c>
-      <c r="E85" s="11">
+      <c r="F85">
+        <v>107</v>
+      </c>
+      <c r="G85" s="11">
         <v>88.785046728972006</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>29</v>
       </c>
-      <c r="G85">
-        <v>84</v>
-      </c>
-      <c r="H85" s="11">
+      <c r="I85">
+        <v>84</v>
+      </c>
+      <c r="J85" s="11">
         <v>34.523809523809497</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>558</v>
       </c>
@@ -16840,25 +17367,31 @@
         <v>133</v>
       </c>
       <c r="C86">
+        <v>-85.030603150000005</v>
+      </c>
+      <c r="D86">
+        <v>12.84210839</v>
+      </c>
+      <c r="E86">
         <v>87</v>
       </c>
-      <c r="D86">
-        <v>107</v>
-      </c>
-      <c r="E86" s="11">
+      <c r="F86">
+        <v>107</v>
+      </c>
+      <c r="G86" s="11">
         <v>81.308411214953296</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>25</v>
       </c>
-      <c r="G86">
-        <v>84</v>
-      </c>
-      <c r="H86" s="11">
+      <c r="I86">
+        <v>84</v>
+      </c>
+      <c r="J86" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>562</v>
       </c>
@@ -16866,25 +17399,31 @@
         <v>134</v>
       </c>
       <c r="C87">
+        <v>9.4001678769999995</v>
+      </c>
+      <c r="D87">
+        <v>17.421430359999999</v>
+      </c>
+      <c r="E87">
         <v>90</v>
       </c>
-      <c r="D87">
-        <v>107</v>
-      </c>
-      <c r="E87" s="11">
+      <c r="F87">
+        <v>107</v>
+      </c>
+      <c r="G87" s="11">
         <v>84.112149532710305</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>27</v>
       </c>
-      <c r="G87">
-        <v>84</v>
-      </c>
-      <c r="H87" s="11">
+      <c r="I87">
+        <v>84</v>
+      </c>
+      <c r="J87" s="11">
         <v>32.142857142857103</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>566</v>
       </c>
@@ -16892,25 +17431,31 @@
         <v>135</v>
       </c>
       <c r="C88">
+        <v>8.0973632559999995</v>
+      </c>
+      <c r="D88">
+        <v>9.5857890250000004</v>
+      </c>
+      <c r="E88">
         <v>94</v>
       </c>
-      <c r="D88">
-        <v>107</v>
-      </c>
-      <c r="E88" s="11">
+      <c r="F88">
+        <v>107</v>
+      </c>
+      <c r="G88" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>22</v>
       </c>
-      <c r="G88">
-        <v>84</v>
-      </c>
-      <c r="H88" s="11">
+      <c r="I88">
+        <v>84</v>
+      </c>
+      <c r="J88" s="11">
         <v>26.1904761904762</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>586</v>
       </c>
@@ -16918,25 +17463,31 @@
         <v>140</v>
       </c>
       <c r="C89">
+        <v>68.804796839999995</v>
+      </c>
+      <c r="D89">
+        <v>29.364916340000001</v>
+      </c>
+      <c r="E89">
         <v>96</v>
       </c>
-      <c r="D89">
-        <v>107</v>
-      </c>
-      <c r="E89" s="11">
+      <c r="F89">
+        <v>107</v>
+      </c>
+      <c r="G89" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>27</v>
       </c>
-      <c r="G89">
-        <v>84</v>
-      </c>
-      <c r="H89" s="11">
+      <c r="I89">
+        <v>84</v>
+      </c>
+      <c r="J89" s="11">
         <v>32.142857142857103</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>591</v>
       </c>
@@ -16944,25 +17495,31 @@
         <v>141</v>
       </c>
       <c r="C90">
+        <v>-81.266166229999996</v>
+      </c>
+      <c r="D90">
+        <v>8.4509657459999996</v>
+      </c>
+      <c r="E90">
         <v>96</v>
       </c>
-      <c r="D90">
-        <v>107</v>
-      </c>
-      <c r="E90" s="11">
+      <c r="F90">
+        <v>107</v>
+      </c>
+      <c r="G90" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>26</v>
       </c>
-      <c r="G90">
-        <v>84</v>
-      </c>
-      <c r="H90" s="11">
+      <c r="I90">
+        <v>84</v>
+      </c>
+      <c r="J90" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>598</v>
       </c>
@@ -16970,25 +17527,31 @@
         <v>142</v>
       </c>
       <c r="C91">
+        <v>145.8587761</v>
+      </c>
+      <c r="D91">
+        <v>-6.7560570770000004</v>
+      </c>
+      <c r="E91">
         <v>85</v>
       </c>
-      <c r="D91">
-        <v>107</v>
-      </c>
-      <c r="E91" s="11">
+      <c r="F91">
+        <v>107</v>
+      </c>
+      <c r="G91" s="11">
         <v>79.439252336448604</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>15</v>
       </c>
-      <c r="G91">
-        <v>84</v>
-      </c>
-      <c r="H91" s="11">
+      <c r="I91">
+        <v>84</v>
+      </c>
+      <c r="J91" s="11">
         <v>17.8571428571429</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>600</v>
       </c>
@@ -16996,25 +17559,31 @@
         <v>143</v>
       </c>
       <c r="C92">
+        <v>-60.548542249999997</v>
+      </c>
+      <c r="D92">
+        <v>-21.70216237</v>
+      </c>
+      <c r="E92">
         <v>96</v>
       </c>
-      <c r="D92">
-        <v>107</v>
-      </c>
-      <c r="E92" s="11">
+      <c r="F92">
+        <v>107</v>
+      </c>
+      <c r="G92" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>26</v>
       </c>
-      <c r="G92">
-        <v>84</v>
-      </c>
-      <c r="H92" s="11">
+      <c r="I92">
+        <v>84</v>
+      </c>
+      <c r="J92" s="11">
         <v>30.952380952380999</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>604</v>
       </c>
@@ -17022,25 +17591,31 @@
         <v>144</v>
       </c>
       <c r="C93">
+        <v>-71.820932769999999</v>
+      </c>
+      <c r="D93">
+        <v>-13.589397050000001</v>
+      </c>
+      <c r="E93">
         <v>92</v>
       </c>
-      <c r="D93">
-        <v>107</v>
-      </c>
-      <c r="E93" s="11">
+      <c r="F93">
+        <v>107</v>
+      </c>
+      <c r="G93" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>32</v>
       </c>
-      <c r="G93">
-        <v>84</v>
-      </c>
-      <c r="H93" s="11">
+      <c r="I93">
+        <v>84</v>
+      </c>
+      <c r="J93" s="11">
         <v>38.095238095238102</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>608</v>
       </c>
@@ -17048,25 +17623,31 @@
         <v>145</v>
       </c>
       <c r="C94">
+        <v>120.86014179999999</v>
+      </c>
+      <c r="D94">
+        <v>14.16591706</v>
+      </c>
+      <c r="E94">
         <v>97</v>
       </c>
-      <c r="D94">
-        <v>107</v>
-      </c>
-      <c r="E94" s="11">
+      <c r="F94">
+        <v>107</v>
+      </c>
+      <c r="G94" s="11">
         <v>90.654205607476598</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>24</v>
       </c>
-      <c r="G94">
-        <v>84</v>
-      </c>
-      <c r="H94" s="11">
+      <c r="I94">
+        <v>84</v>
+      </c>
+      <c r="J94" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>624</v>
       </c>
@@ -17074,25 +17655,31 @@
         <v>148</v>
       </c>
       <c r="C95">
+        <v>-14.40182514</v>
+      </c>
+      <c r="D95">
+        <v>12.11760394</v>
+      </c>
+      <c r="E95">
         <v>79</v>
       </c>
-      <c r="D95">
-        <v>107</v>
-      </c>
-      <c r="E95" s="11">
+      <c r="F95">
+        <v>107</v>
+      </c>
+      <c r="G95" s="11">
         <v>73.8317757009346</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>15</v>
       </c>
-      <c r="G95">
-        <v>84</v>
-      </c>
-      <c r="H95" s="11">
+      <c r="I95">
+        <v>84</v>
+      </c>
+      <c r="J95" s="11">
         <v>17.8571428571429</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>626</v>
       </c>
@@ -17100,25 +17687,31 @@
         <v>149</v>
       </c>
       <c r="C96">
+        <v>125.9451052</v>
+      </c>
+      <c r="D96">
+        <v>-8.7974972470000008</v>
+      </c>
+      <c r="E96">
         <v>83</v>
       </c>
-      <c r="D96">
-        <v>107</v>
-      </c>
-      <c r="E96" s="11">
+      <c r="F96">
+        <v>107</v>
+      </c>
+      <c r="G96" s="11">
         <v>77.570093457943898</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>19</v>
       </c>
-      <c r="G96">
-        <v>84</v>
-      </c>
-      <c r="H96" s="11">
+      <c r="I96">
+        <v>84</v>
+      </c>
+      <c r="J96" s="11">
         <v>22.619047619047599</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>646</v>
       </c>
@@ -17126,25 +17719,31 @@
         <v>153</v>
       </c>
       <c r="C97">
+        <v>29.923101939999999</v>
+      </c>
+      <c r="D97">
+        <v>-1.999842114</v>
+      </c>
+      <c r="E97">
         <v>92</v>
       </c>
-      <c r="D97">
-        <v>107</v>
-      </c>
-      <c r="E97" s="11">
+      <c r="F97">
+        <v>107</v>
+      </c>
+      <c r="G97" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>27</v>
       </c>
-      <c r="G97">
-        <v>84</v>
-      </c>
-      <c r="H97" s="11">
+      <c r="I97">
+        <v>84</v>
+      </c>
+      <c r="J97" s="11">
         <v>32.142857142857103</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>678</v>
       </c>
@@ -17152,25 +17751,31 @@
         <v>158</v>
       </c>
       <c r="C98">
+        <v>6.6097722650000001</v>
+      </c>
+      <c r="D98">
+        <v>0.241554875</v>
+      </c>
+      <c r="E98">
         <v>85</v>
       </c>
-      <c r="D98">
-        <v>107</v>
-      </c>
-      <c r="E98" s="11">
+      <c r="F98">
+        <v>107</v>
+      </c>
+      <c r="G98" s="11">
         <v>79.439252336448604</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>13</v>
       </c>
-      <c r="G98">
-        <v>84</v>
-      </c>
-      <c r="H98" s="11">
+      <c r="I98">
+        <v>84</v>
+      </c>
+      <c r="J98" s="11">
         <v>15.476190476190499</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -17178,25 +17783,31 @@
         <v>159</v>
       </c>
       <c r="C99">
+        <v>44.547633470000001</v>
+      </c>
+      <c r="D99">
+        <v>24.12594211</v>
+      </c>
+      <c r="E99">
         <v>82</v>
       </c>
-      <c r="D99">
-        <v>107</v>
-      </c>
-      <c r="E99" s="11">
+      <c r="F99">
+        <v>107</v>
+      </c>
+      <c r="G99" s="11">
         <v>76.635514018691595</v>
       </c>
-      <c r="F99">
-        <v>9</v>
-      </c>
-      <c r="G99">
-        <v>84</v>
-      </c>
-      <c r="H99" s="11">
+      <c r="H99">
+        <v>9</v>
+      </c>
+      <c r="I99">
+        <v>84</v>
+      </c>
+      <c r="J99" s="11">
         <v>10.714285714285699</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>686</v>
       </c>
@@ -17204,25 +17815,31 @@
         <v>160</v>
       </c>
       <c r="C100">
+        <v>-14.46636926</v>
+      </c>
+      <c r="D100">
+        <v>14.35920905</v>
+      </c>
+      <c r="E100">
         <v>96</v>
       </c>
-      <c r="D100">
-        <v>107</v>
-      </c>
-      <c r="E100" s="11">
+      <c r="F100">
+        <v>107</v>
+      </c>
+      <c r="G100" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>25</v>
       </c>
-      <c r="G100">
-        <v>84</v>
-      </c>
-      <c r="H100" s="11">
+      <c r="I100">
+        <v>84</v>
+      </c>
+      <c r="J100" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>688</v>
       </c>
@@ -17230,25 +17847,31 @@
         <v>161</v>
       </c>
       <c r="C101">
+        <v>20.805876000000001</v>
+      </c>
+      <c r="D101">
+        <v>44.031456970000001</v>
+      </c>
+      <c r="E101">
         <v>90</v>
       </c>
-      <c r="D101">
-        <v>107</v>
-      </c>
-      <c r="E101" s="11">
+      <c r="F101">
+        <v>107</v>
+      </c>
+      <c r="G101" s="11">
         <v>84.112149532710305</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>28</v>
       </c>
-      <c r="G101">
-        <v>84</v>
-      </c>
-      <c r="H101" s="11">
+      <c r="I101">
+        <v>84</v>
+      </c>
+      <c r="J101" s="11">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>694</v>
       </c>
@@ -17256,25 +17879,31 @@
         <v>163</v>
       </c>
       <c r="C102">
+        <v>-11.783065840000001</v>
+      </c>
+      <c r="D102">
+        <v>8.5686041639999999</v>
+      </c>
+      <c r="E102">
         <v>87</v>
       </c>
-      <c r="D102">
-        <v>107</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="F102">
+        <v>107</v>
+      </c>
+      <c r="G102" s="11">
         <v>81.308411214953296</v>
       </c>
-      <c r="F102">
+      <c r="H102">
         <v>23</v>
       </c>
-      <c r="G102">
-        <v>84</v>
-      </c>
-      <c r="H102" s="11">
+      <c r="I102">
+        <v>84</v>
+      </c>
+      <c r="J102" s="11">
         <v>27.380952380952401</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>704</v>
       </c>
@@ -17282,25 +17911,31 @@
         <v>166</v>
       </c>
       <c r="C103">
+        <v>105.802499</v>
+      </c>
+      <c r="D103">
+        <v>10.096430789999999</v>
+      </c>
+      <c r="E103">
         <v>96</v>
       </c>
-      <c r="D103">
-        <v>107</v>
-      </c>
-      <c r="E103" s="11">
+      <c r="F103">
+        <v>107</v>
+      </c>
+      <c r="G103" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F103">
+      <c r="H103">
         <v>25</v>
       </c>
-      <c r="G103">
-        <v>84</v>
-      </c>
-      <c r="H103" s="11">
+      <c r="I103">
+        <v>84</v>
+      </c>
+      <c r="J103" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>706</v>
       </c>
@@ -17308,25 +17943,31 @@
         <v>168</v>
       </c>
       <c r="C104">
+        <v>46.203674769999999</v>
+      </c>
+      <c r="D104">
+        <v>4.4064857289999999</v>
+      </c>
+      <c r="E104">
         <v>73</v>
       </c>
-      <c r="D104">
-        <v>107</v>
-      </c>
-      <c r="E104" s="11">
+      <c r="F104">
+        <v>107</v>
+      </c>
+      <c r="G104" s="11">
         <v>68.224299065420595</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>17</v>
       </c>
-      <c r="G104">
-        <v>84</v>
-      </c>
-      <c r="H104" s="11">
+      <c r="I104">
+        <v>84</v>
+      </c>
+      <c r="J104" s="11">
         <v>20.238095238095202</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>710</v>
       </c>
@@ -17334,25 +17975,31 @@
         <v>169</v>
       </c>
       <c r="C105">
+        <v>24.671843549999998</v>
+      </c>
+      <c r="D105">
+        <v>-29.999575440000001</v>
+      </c>
+      <c r="E105">
         <v>96</v>
       </c>
-      <c r="D105">
-        <v>107</v>
-      </c>
-      <c r="E105" s="11">
+      <c r="F105">
+        <v>107</v>
+      </c>
+      <c r="G105" s="11">
         <v>89.719626168224295</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>24</v>
       </c>
-      <c r="G105">
-        <v>84</v>
-      </c>
-      <c r="H105" s="11">
+      <c r="I105">
+        <v>84</v>
+      </c>
+      <c r="J105" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>716</v>
       </c>
@@ -17360,25 +18007,31 @@
         <v>170</v>
       </c>
       <c r="C106">
+        <v>29.86909584</v>
+      </c>
+      <c r="D106">
+        <v>-19.000754919999999</v>
+      </c>
+      <c r="E106">
         <v>92</v>
       </c>
-      <c r="D106">
-        <v>107</v>
-      </c>
-      <c r="E106" s="11">
+      <c r="F106">
+        <v>107</v>
+      </c>
+      <c r="G106" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>25</v>
       </c>
-      <c r="G106">
-        <v>84</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="I106">
+        <v>84</v>
+      </c>
+      <c r="J106" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>728</v>
       </c>
@@ -17386,51 +18039,63 @@
         <v>172</v>
       </c>
       <c r="C107">
+        <v>30.326187730000001</v>
+      </c>
+      <c r="D107">
+        <v>7.2908391520000002</v>
+      </c>
+      <c r="E107">
         <v>75</v>
       </c>
-      <c r="D107">
-        <v>107</v>
-      </c>
-      <c r="E107" s="11">
+      <c r="F107">
+        <v>107</v>
+      </c>
+      <c r="G107" s="11">
         <v>70.093457943925202</v>
       </c>
-      <c r="F107">
+      <c r="H107">
         <v>13</v>
       </c>
-      <c r="G107">
-        <v>84</v>
-      </c>
-      <c r="H107" s="11">
+      <c r="I107">
+        <v>84</v>
+      </c>
+      <c r="J107" s="11">
         <v>15.476190476190499</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B108" t="s">
         <v>173</v>
       </c>
       <c r="C108">
+        <v>29.956501589999998</v>
+      </c>
+      <c r="D108">
+        <v>16.026430659999999</v>
+      </c>
+      <c r="E108">
         <v>83</v>
       </c>
-      <c r="D108">
-        <v>107</v>
-      </c>
-      <c r="E108" s="11">
+      <c r="F108">
+        <v>107</v>
+      </c>
+      <c r="G108" s="11">
         <v>77.570093457943898</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>19</v>
       </c>
-      <c r="G108">
-        <v>84</v>
-      </c>
-      <c r="H108" s="11">
+      <c r="I108">
+        <v>84</v>
+      </c>
+      <c r="J108" s="11">
         <v>22.619047619047599</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>740</v>
       </c>
@@ -17438,25 +18103,31 @@
         <v>174</v>
       </c>
       <c r="C109">
+        <v>-55.906263940000002</v>
+      </c>
+      <c r="D109">
+        <v>4.1326031969999999</v>
+      </c>
+      <c r="E109">
         <v>80</v>
       </c>
-      <c r="D109">
-        <v>107</v>
-      </c>
-      <c r="E109" s="11">
+      <c r="F109">
+        <v>107</v>
+      </c>
+      <c r="G109" s="11">
         <v>74.766355140186903</v>
       </c>
-      <c r="F109">
-        <v>9</v>
-      </c>
-      <c r="G109">
-        <v>84</v>
-      </c>
-      <c r="H109" s="11">
+      <c r="H109">
+        <v>9</v>
+      </c>
+      <c r="I109">
+        <v>84</v>
+      </c>
+      <c r="J109" s="11">
         <v>10.714285714285699</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>748</v>
       </c>
@@ -17464,25 +18135,31 @@
         <v>175</v>
       </c>
       <c r="C110">
+        <v>31.501492880000001</v>
+      </c>
+      <c r="D110">
+        <v>-26.56471011</v>
+      </c>
+      <c r="E110">
         <v>92</v>
       </c>
-      <c r="D110">
-        <v>107</v>
-      </c>
-      <c r="E110" s="11">
+      <c r="F110">
+        <v>107</v>
+      </c>
+      <c r="G110" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>22</v>
       </c>
-      <c r="G110">
-        <v>84</v>
-      </c>
-      <c r="H110" s="11">
+      <c r="I110">
+        <v>84</v>
+      </c>
+      <c r="J110" s="11">
         <v>26.1904761904762</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>760</v>
       </c>
@@ -17490,25 +18167,31 @@
         <v>178</v>
       </c>
       <c r="C111">
+        <v>38.50466565</v>
+      </c>
+      <c r="D111">
+        <v>35.016761760000001</v>
+      </c>
+      <c r="E111">
         <v>83</v>
       </c>
-      <c r="D111">
-        <v>107</v>
-      </c>
-      <c r="E111" s="11">
+      <c r="F111">
+        <v>107</v>
+      </c>
+      <c r="G111" s="11">
         <v>77.570093457943898</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>15</v>
       </c>
-      <c r="G111">
-        <v>84</v>
-      </c>
-      <c r="H111" s="11">
+      <c r="I111">
+        <v>84</v>
+      </c>
+      <c r="J111" s="11">
         <v>17.8571428571429</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>762</v>
       </c>
@@ -17516,25 +18199,31 @@
         <v>179</v>
       </c>
       <c r="C112">
+        <v>69.294998000000007</v>
+      </c>
+      <c r="D112">
+        <v>38.430696660000002</v>
+      </c>
+      <c r="E112">
         <v>88</v>
       </c>
-      <c r="D112">
-        <v>107</v>
-      </c>
-      <c r="E112" s="11">
+      <c r="F112">
+        <v>107</v>
+      </c>
+      <c r="G112" s="11">
         <v>82.242990654205599</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>21</v>
       </c>
-      <c r="G112">
-        <v>84</v>
-      </c>
-      <c r="H112" s="11">
+      <c r="I112">
+        <v>84</v>
+      </c>
+      <c r="J112" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>764</v>
       </c>
@@ -17542,25 +18231,31 @@
         <v>180</v>
       </c>
       <c r="C113">
+        <v>101.0202951</v>
+      </c>
+      <c r="D113">
+        <v>15.13089239</v>
+      </c>
+      <c r="E113">
         <v>97</v>
       </c>
-      <c r="D113">
-        <v>107</v>
-      </c>
-      <c r="E113" s="11">
+      <c r="F113">
+        <v>107</v>
+      </c>
+      <c r="G113" s="11">
         <v>90.654205607476598</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>23</v>
       </c>
-      <c r="G113">
-        <v>84</v>
-      </c>
-      <c r="H113" s="11">
+      <c r="I113">
+        <v>84</v>
+      </c>
+      <c r="J113" s="11">
         <v>27.380952380952401</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>768</v>
       </c>
@@ -17568,25 +18263,31 @@
         <v>181</v>
       </c>
       <c r="C114">
+        <v>0.97835764999999997</v>
+      </c>
+      <c r="D114">
+        <v>8.5320960719999999</v>
+      </c>
+      <c r="E114">
         <v>94</v>
       </c>
-      <c r="D114">
-        <v>107</v>
-      </c>
-      <c r="E114" s="11">
+      <c r="F114">
+        <v>107</v>
+      </c>
+      <c r="G114" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>31</v>
       </c>
-      <c r="G114">
-        <v>84</v>
-      </c>
-      <c r="H114" s="11">
+      <c r="I114">
+        <v>84</v>
+      </c>
+      <c r="J114" s="11">
         <v>36.904761904761898</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>780</v>
       </c>
@@ -17594,25 +18295,31 @@
         <v>183</v>
       </c>
       <c r="C115">
+        <v>-61.293895040000002</v>
+      </c>
+      <c r="D115">
+        <v>10.418772629999999</v>
+      </c>
+      <c r="E115">
         <v>87</v>
       </c>
-      <c r="D115">
-        <v>107</v>
-      </c>
-      <c r="E115" s="11">
+      <c r="F115">
+        <v>107</v>
+      </c>
+      <c r="G115" s="11">
         <v>81.308411214953296</v>
       </c>
-      <c r="F115">
+      <c r="H115">
         <v>20</v>
       </c>
-      <c r="G115">
-        <v>84</v>
-      </c>
-      <c r="H115" s="11">
+      <c r="I115">
+        <v>84</v>
+      </c>
+      <c r="J115" s="11">
         <v>23.8095238095238</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>784</v>
       </c>
@@ -17620,25 +18327,31 @@
         <v>184</v>
       </c>
       <c r="C116">
+        <v>53.982791589999998</v>
+      </c>
+      <c r="D116">
+        <v>23.433222189999999</v>
+      </c>
+      <c r="E116">
         <v>73</v>
       </c>
-      <c r="D116">
-        <v>107</v>
-      </c>
-      <c r="E116" s="11">
+      <c r="F116">
+        <v>107</v>
+      </c>
+      <c r="G116" s="11">
         <v>68.224299065420595</v>
       </c>
-      <c r="F116">
-        <v>8</v>
-      </c>
-      <c r="G116">
-        <v>84</v>
-      </c>
-      <c r="H116" s="11">
+      <c r="H116">
+        <v>8</v>
+      </c>
+      <c r="I116">
+        <v>84</v>
+      </c>
+      <c r="J116" s="11">
         <v>9.5238095238095202</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>788</v>
       </c>
@@ -17646,25 +18359,31 @@
         <v>185</v>
       </c>
       <c r="C117">
+        <v>9.5727374110000003</v>
+      </c>
+      <c r="D117">
+        <v>34.114399710000001</v>
+      </c>
+      <c r="E117">
         <v>93</v>
       </c>
-      <c r="D117">
-        <v>107</v>
-      </c>
-      <c r="E117" s="11">
+      <c r="F117">
+        <v>107</v>
+      </c>
+      <c r="G117" s="11">
         <v>86.9158878504673</v>
       </c>
-      <c r="F117">
+      <c r="H117">
         <v>24</v>
       </c>
-      <c r="G117">
-        <v>84</v>
-      </c>
-      <c r="H117" s="11">
+      <c r="I117">
+        <v>84</v>
+      </c>
+      <c r="J117" s="11">
         <v>28.571428571428601</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>792</v>
       </c>
@@ -17672,25 +18391,31 @@
         <v>186</v>
       </c>
       <c r="C118">
+        <v>35.428903290000001</v>
+      </c>
+      <c r="D118">
+        <v>38.989968400000002</v>
+      </c>
+      <c r="E118">
         <v>94</v>
       </c>
-      <c r="D118">
-        <v>107</v>
-      </c>
-      <c r="E118" s="11">
+      <c r="F118">
+        <v>107</v>
+      </c>
+      <c r="G118" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>31</v>
       </c>
-      <c r="G118">
-        <v>84</v>
-      </c>
-      <c r="H118" s="11">
+      <c r="I118">
+        <v>84</v>
+      </c>
+      <c r="J118" s="11">
         <v>36.904761904761898</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>795</v>
       </c>
@@ -17698,25 +18423,31 @@
         <v>187</v>
       </c>
       <c r="C119">
+        <v>58.978766499999999</v>
+      </c>
+      <c r="D119">
+        <v>40.0912346</v>
+      </c>
+      <c r="E119">
         <v>72</v>
       </c>
-      <c r="D119">
-        <v>107</v>
-      </c>
-      <c r="E119" s="11">
+      <c r="F119">
+        <v>107</v>
+      </c>
+      <c r="G119" s="11">
         <v>67.289719626168207</v>
       </c>
-      <c r="F119">
+      <c r="H119">
         <v>6</v>
       </c>
-      <c r="G119">
-        <v>84</v>
-      </c>
-      <c r="H119" s="11">
+      <c r="I119">
+        <v>84</v>
+      </c>
+      <c r="J119" s="11">
         <v>7.1428571428571397</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>800</v>
       </c>
@@ -17724,25 +18455,31 @@
         <v>189</v>
       </c>
       <c r="C120">
+        <v>32.391004379999998</v>
+      </c>
+      <c r="D120">
+        <v>1.2795573309999999</v>
+      </c>
+      <c r="E120">
         <v>92</v>
       </c>
-      <c r="D120">
-        <v>107</v>
-      </c>
-      <c r="E120" s="11">
+      <c r="F120">
+        <v>107</v>
+      </c>
+      <c r="G120" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F120">
+      <c r="H120">
         <v>30</v>
       </c>
-      <c r="G120">
-        <v>84</v>
-      </c>
-      <c r="H120" s="11">
+      <c r="I120">
+        <v>84</v>
+      </c>
+      <c r="J120" s="11">
         <v>35.714285714285701</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>804</v>
       </c>
@@ -17750,25 +18487,31 @@
         <v>190</v>
       </c>
       <c r="C121">
+        <v>31.402708019999999</v>
+      </c>
+      <c r="D121">
+        <v>49.007359450000003</v>
+      </c>
+      <c r="E121">
         <v>94</v>
       </c>
-      <c r="D121">
-        <v>107</v>
-      </c>
-      <c r="E121" s="11">
+      <c r="F121">
+        <v>107</v>
+      </c>
+      <c r="G121" s="11">
         <v>87.850467289719603</v>
       </c>
-      <c r="F121">
+      <c r="H121">
         <v>30</v>
       </c>
-      <c r="G121">
-        <v>84</v>
-      </c>
-      <c r="H121" s="11">
+      <c r="I121">
+        <v>84</v>
+      </c>
+      <c r="J121" s="11">
         <v>35.714285714285701</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>807</v>
       </c>
@@ -17776,25 +18519,31 @@
         <v>191</v>
       </c>
       <c r="C122">
+        <v>21.700790900000001</v>
+      </c>
+      <c r="D122">
+        <v>41.600480679999997</v>
+      </c>
+      <c r="E122">
         <v>88</v>
       </c>
-      <c r="D122">
-        <v>107</v>
-      </c>
-      <c r="E122" s="11">
+      <c r="F122">
+        <v>107</v>
+      </c>
+      <c r="G122" s="11">
         <v>82.242990654205599</v>
       </c>
-      <c r="F122">
+      <c r="H122">
         <v>22</v>
       </c>
-      <c r="G122">
-        <v>84</v>
-      </c>
-      <c r="H122" s="11">
+      <c r="I122">
+        <v>84</v>
+      </c>
+      <c r="J122" s="11">
         <v>26.1904761904762</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>818</v>
       </c>
@@ -17802,25 +18551,31 @@
         <v>192</v>
       </c>
       <c r="C123">
+        <v>29.774685340000001</v>
+      </c>
+      <c r="D123">
+        <v>26.57438204</v>
+      </c>
+      <c r="E123">
         <v>92</v>
       </c>
-      <c r="D123">
-        <v>107</v>
-      </c>
-      <c r="E123" s="11">
+      <c r="F123">
+        <v>107</v>
+      </c>
+      <c r="G123" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F123">
+      <c r="H123">
         <v>31</v>
       </c>
-      <c r="G123">
-        <v>84</v>
-      </c>
-      <c r="H123" s="11">
+      <c r="I123">
+        <v>84</v>
+      </c>
+      <c r="J123" s="11">
         <v>36.904761904761898</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>834</v>
       </c>
@@ -17828,25 +18583,31 @@
         <v>194</v>
       </c>
       <c r="C124">
+        <v>34.805211819999997</v>
+      </c>
+      <c r="D124">
+        <v>-6.2653326060000003</v>
+      </c>
+      <c r="E124">
         <v>97</v>
       </c>
-      <c r="D124">
-        <v>107</v>
-      </c>
-      <c r="E124" s="11">
+      <c r="F124">
+        <v>107</v>
+      </c>
+      <c r="G124" s="11">
         <v>90.654205607476598</v>
       </c>
-      <c r="F124">
+      <c r="H124">
         <v>31</v>
       </c>
-      <c r="G124">
-        <v>84</v>
-      </c>
-      <c r="H124" s="11">
+      <c r="I124">
+        <v>84</v>
+      </c>
+      <c r="J124" s="11">
         <v>36.904761904761898</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>854</v>
       </c>
@@ -17854,25 +18615,31 @@
         <v>196</v>
       </c>
       <c r="C125">
+        <v>-1.7428438289999999</v>
+      </c>
+      <c r="D125">
+        <v>12.27491081</v>
+      </c>
+      <c r="E125">
         <v>91</v>
       </c>
-      <c r="D125">
-        <v>107</v>
-      </c>
-      <c r="E125" s="11">
+      <c r="F125">
+        <v>107</v>
+      </c>
+      <c r="G125" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F125">
+      <c r="H125">
         <v>29</v>
       </c>
-      <c r="G125">
-        <v>84</v>
-      </c>
-      <c r="H125" s="11">
+      <c r="I125">
+        <v>84</v>
+      </c>
+      <c r="J125" s="11">
         <v>34.523809523809497</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>858</v>
       </c>
@@ -17880,25 +18647,31 @@
         <v>197</v>
       </c>
       <c r="C126">
+        <v>-56.013870249999997</v>
+      </c>
+      <c r="D126">
+        <v>-32.800283800000003</v>
+      </c>
+      <c r="E126">
         <v>91</v>
       </c>
-      <c r="D126">
-        <v>107</v>
-      </c>
-      <c r="E126" s="11">
+      <c r="F126">
+        <v>107</v>
+      </c>
+      <c r="G126" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F126">
+      <c r="H126">
         <v>27</v>
       </c>
-      <c r="G126">
-        <v>84</v>
-      </c>
-      <c r="H126" s="11">
+      <c r="I126">
+        <v>84</v>
+      </c>
+      <c r="J126" s="11">
         <v>32.142857142857103</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>860</v>
       </c>
@@ -17906,25 +18679,31 @@
         <v>198</v>
       </c>
       <c r="C127">
+        <v>63.119445579999997</v>
+      </c>
+      <c r="D127">
+        <v>41.775605179999999</v>
+      </c>
+      <c r="E127">
         <v>81</v>
       </c>
-      <c r="D127">
-        <v>107</v>
-      </c>
-      <c r="E127" s="11">
+      <c r="F127">
+        <v>107</v>
+      </c>
+      <c r="G127" s="11">
         <v>75.700934579439206</v>
       </c>
-      <c r="F127">
+      <c r="H127">
         <v>18</v>
       </c>
-      <c r="G127">
-        <v>84</v>
-      </c>
-      <c r="H127" s="11">
+      <c r="I127">
+        <v>84</v>
+      </c>
+      <c r="J127" s="11">
         <v>21.428571428571399</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>862</v>
       </c>
@@ -17932,25 +18711,31 @@
         <v>199</v>
       </c>
       <c r="C128">
+        <v>-66.156420839999996</v>
+      </c>
+      <c r="D128">
+        <v>7.1213247480000001</v>
+      </c>
+      <c r="E128">
         <v>89</v>
       </c>
-      <c r="D128">
-        <v>107</v>
-      </c>
-      <c r="E128" s="11">
+      <c r="F128">
+        <v>107</v>
+      </c>
+      <c r="G128" s="11">
         <v>83.177570093457902</v>
       </c>
-      <c r="F128">
+      <c r="H128">
         <v>16</v>
       </c>
-      <c r="G128">
-        <v>84</v>
-      </c>
-      <c r="H128" s="11">
+      <c r="I128">
+        <v>84</v>
+      </c>
+      <c r="J128" s="11">
         <v>19.047619047619001</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>882</v>
       </c>
@@ -17958,25 +18743,31 @@
         <v>200</v>
       </c>
       <c r="C129">
+        <v>-172.4430749</v>
+      </c>
+      <c r="D129">
+        <v>-13.61541469</v>
+      </c>
+      <c r="E129">
         <v>85</v>
       </c>
-      <c r="D129">
-        <v>107</v>
-      </c>
-      <c r="E129" s="11">
+      <c r="F129">
+        <v>107</v>
+      </c>
+      <c r="G129" s="11">
         <v>79.439252336448604</v>
       </c>
-      <c r="F129">
+      <c r="H129">
         <v>20</v>
       </c>
-      <c r="G129">
-        <v>84</v>
-      </c>
-      <c r="H129" s="11">
+      <c r="I129">
+        <v>84</v>
+      </c>
+      <c r="J129" s="11">
         <v>23.8095238095238</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>887</v>
       </c>
@@ -17984,25 +18775,31 @@
         <v>201</v>
       </c>
       <c r="C130">
+        <v>45.223891430000002</v>
+      </c>
+      <c r="D130">
+        <v>15.22242099</v>
+      </c>
+      <c r="E130">
         <v>92</v>
       </c>
-      <c r="D130">
-        <v>107</v>
-      </c>
-      <c r="E130" s="11">
+      <c r="F130">
+        <v>107</v>
+      </c>
+      <c r="G130" s="11">
         <v>85.981308411214997</v>
       </c>
-      <c r="F130">
+      <c r="H130">
         <v>25</v>
       </c>
-      <c r="G130">
-        <v>84</v>
-      </c>
-      <c r="H130" s="11">
+      <c r="I130">
+        <v>84</v>
+      </c>
+      <c r="J130" s="11">
         <v>29.761904761904798</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>894</v>
       </c>
@@ -18010,25 +18807,34 @@
         <v>202</v>
       </c>
       <c r="C131">
+        <v>27.850328999999999</v>
+      </c>
+      <c r="D131">
+        <v>-14.597010559999999</v>
+      </c>
+      <c r="E131">
         <v>91</v>
       </c>
-      <c r="D131">
-        <v>107</v>
-      </c>
-      <c r="E131" s="11">
+      <c r="F131">
+        <v>107</v>
+      </c>
+      <c r="G131" s="11">
         <v>85.046728971962594</v>
       </c>
-      <c r="F131">
+      <c r="H131">
         <v>16</v>
       </c>
-      <c r="G131">
-        <v>84</v>
-      </c>
-      <c r="H131" s="11">
+      <c r="I131">
+        <v>84</v>
+      </c>
+      <c r="J131" s="11">
         <v>19.047619047619001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J131">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
